--- a/reception.xlsx
+++ b/reception.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="118">
   <si>
     <t>Track Number</t>
   </si>
@@ -86,7 +86,7 @@
     <t>https://www.clashmusic.com/reviews/v-a-the-metallica-blacklist/</t>
   </si>
   <si>
-    <t xml:space="preserve">Mac DeMarco['s] his hella fun stab at ‘Enter Sandman’ add[s] some garage rock panache to this guitar shop classic. It’s heavy, it’s goofy, and he sounds like he’s having the time of his life with it. </t>
+    <t xml:space="preserve">Mac DeMarco['s] hella fun stab at ‘Enter Sandman’ add[s] some garage rock panache to this guitar shop classic. It’s heavy, it’s goofy, and he sounds like he’s having the time of his life with it. </t>
   </si>
   <si>
     <t>Mad Aussies The Chats bring some snot and snarl to ‘Holier Than Though,’ morphing the original’s bruising beat into a lost punk classic circa 1977.</t>
@@ -195,6 +195,192 @@
   </si>
   <si>
     <t>Phoebe Bridgers, whose stunning and haunting chamber music reading of “Nothing” is the best of the dozen ...</t>
+  </si>
+  <si>
+    <t>Joe Daly</t>
+  </si>
+  <si>
+    <t>Metal Hammer</t>
+  </si>
+  <si>
+    <t>https://www.loudersound.com/reviews/the-metallica-blacklist-thrash-icons-landmark-album-gets-covered-across-the-musical-spectrum</t>
+  </si>
+  <si>
+    <t>Biffy Clyro’s Holier Than Thou – an onslaught of surging beats, razor-wire riffing and a supernova-sized breakdown.</t>
+  </si>
+  <si>
+    <t>Off! turn in a positively blistering version that anyone unfamiliar with the original could credibly mistake for an old-school punk anthem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghost transform Enter Sandman into a euphoric slice of 70s hard rock with snarling riffs, piano-driven melodies and Papa’s witchy, layered vocals. </t>
+  </si>
+  <si>
+    <t>Mongolian marauders The Hu check in with a slamming Through The Never, sung in their native tongue and played with the wild, surging ferocity of a bloodthirsty horde riding into battle.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other notable performances include St. Vincent’s smouldering, pseudo-industrial take on Sad But True </t>
+  </si>
+  <si>
+    <t>Ha*Ash’s version of The Unforgiven – a dreamy slice of acoustic balladry that feels like the theme to a mythic quest.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colombia’s Grammy-collecting megastar, Juanes, funks up Enter Sandman with a bit of Latin flavour, but you’d still be hard-pressed to remember it among the numerous other versions. </t>
+  </si>
+  <si>
+    <t>Chase &amp; Status bring in Background Gee for Wherever I May Roam, showcasing some filthy hip hop grooves but leaving listeners waiting for a huge payoff that never arrives.</t>
+  </si>
+  <si>
+    <t>But the hits outweigh the misses by a mile, especially when you’ve got hitters like Royal Blood, Weezer and Corey Taylor in the line-up.</t>
+  </si>
+  <si>
+    <t>Miley Cyrus’s collaboration with Elton John and others on Nothing Else Matters is one of the more memorable tracks</t>
+  </si>
+  <si>
+    <t>country legend Chris Stapleton taps into the gritty defiance of the original with a mean and dusty eight-minute version that rises to the top of the …Blacklist heap</t>
+  </si>
+  <si>
+    <t>Closely related, Jason Isbell and The 400 Unit turn Sad But True into a boozy roadhouse shakedown.</t>
+  </si>
+  <si>
+    <t>Max Morin</t>
+  </si>
+  <si>
+    <t>Metal Injection</t>
+  </si>
+  <si>
+    <t>https://metalinjection.net/reviews/metallica-the-metallica-blacklist</t>
+  </si>
+  <si>
+    <t>But by the time J Balvin is rapping “Wherever I May Roam” in Spanish, all bets are off.</t>
+  </si>
+  <si>
+    <t>IDLES insert British gutter punk energy into their cover of “The God That Failed”, already one of the heaviest songs on The Black Album</t>
+  </si>
+  <si>
+    <t>Royal Blood continue to sound bigger than their two members on a worshipful “Sad But True”</t>
+  </si>
+  <si>
+    <t>Corey Taylor sounds like Corey Taylor on “Holier Than Thou”</t>
+  </si>
+  <si>
+    <t>Ghost have definitely been waiting to cover “Enter Sandman” forever and it comes out with their distinct organ-heavy energy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volbeat must be sick of all the comparisons by now, because their “Don’t Tread On Me” features one of The Blacklist’s most faithful renditions. </t>
+  </si>
+  <si>
+    <t>But it’s The Hu's Mongolian-language “Through The Never” that will send fans into fits of musical ecstasy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don’t miss more covers by Pup, Weezer, Off! and White Reaper. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">...Juanes, the Colombian pop musician who returns to his roots for a reggaeton “Enter Sandman”. </t>
+  </si>
+  <si>
+    <t>Rina Sawayama turns the same song into a thrash/dance tune.</t>
+  </si>
+  <si>
+    <t>Chris Stapleton, Jason Isbell and The 400 Unit and Jon Pardi all throw their oversized cowboy hats in the ring.</t>
+  </si>
+  <si>
+    <t>Phoebe Bridgers is here to chill things out with her piano and indie-rock production</t>
+  </si>
+  <si>
+    <t>rising R&amp;B star Tomi Owó, whose version of “Through The Never” manages to balance metal riffs with her angelic voice.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St. Vincent is a confirmed metalhead, but her synth-pop “Sad But True” won’t please metal fans or her own listeners. </t>
+  </si>
+  <si>
+    <t>Bollywood legend Vishal Dadlani valiantly takes on “The Unforgiven”, but it’s too sappy to be worth more than one listen.</t>
+  </si>
+  <si>
+    <t>Diet Cig sounds like Phoebe Bridgers if she listened to more Wolf Alice, but somehow not as cool as that should be.</t>
+  </si>
+  <si>
+    <t>But the bottom has to be My Morning Jacket, who turn “Nothing Else Matters” into a pop rock tune that sounds weak and lacking in bite at the same time. It’s the soundtrack to a bad commercial interrupting your YouTube playlist.</t>
+  </si>
+  <si>
+    <t>All the attention is right on the centre of the album. It's where Miley Cyrus, Elton John, Yo-yo Ma and Chad Smith of Red Hot Chili Peppers deliver the star take. Miley Cyrus has reinvented herself several times at this point, but her recent transformation into The Hard Rock Queen of Karaoke has been unexpected and genuinely great. She has a harsh edge on her voice that has been hiding up to this point, a bluesy rasp that calls to mind PJ Harvey, Courtney Barnett and James Hetfield’s own bark. As their version of “Nothing Else Matters” swells to its climax, it’s clear that this is the only track on The Blacklist that can actually be compared to the original.</t>
+  </si>
+  <si>
+    <t>Mark Beaumont</t>
+  </si>
+  <si>
+    <t>NME</t>
+  </si>
+  <si>
+    <t>https://www.nme.com/reviews/album/various-artists-the-metallica-blacklist-review-black-album-3042648</t>
+  </si>
+  <si>
+    <t>Special mention must go to Goodnight, Texas and Rodrigo Y Gabriela, the only acts to offer to cover ‘Of Wolf And Man’ and ‘The Struggle Within’ respectively</t>
+  </si>
+  <si>
+    <t>French producer SebastiAn, ... throws himself fully into the concept by mashing up two tracks into an electro-orchestral funk frippery clumsily titled ‘Don’t Tread On Else Matters’.</t>
+  </si>
+  <si>
+    <t>In the battle for ‘Enter Sandman’, Rina Sawayama’s crazed electro-storm narrowly triumphs over Weezer’s power-chord overload</t>
+  </si>
+  <si>
+    <t>with the rear of the field made up by Ghost’s gloss-rock pantomime version</t>
+  </si>
+  <si>
+    <t>Mac DeMarco’s spirited if wobbly attempt to give it its full metal dues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Royal Blood ... channelling faithful Kirk Hammett riffage </t>
+  </si>
+  <si>
+    <t>St. Vincent ... taking it for an art-pop frolic through an industrial wasteland</t>
+  </si>
+  <si>
+    <t>Both trump Sam Fender’s soul effort</t>
+  </si>
+  <si>
+    <t>but face stiff competition from Jason Isbell And The 400 Unit (demented skiffle rock) and the Mexican Institute Of Sound (carnival freak rave)</t>
+  </si>
+  <si>
+    <t>Biffy Clyro make an early claim on ‘Holier Than Thou’ with a sophisticated yet brutal reading plus anthemic coda</t>
+  </si>
+  <si>
+    <t>only to be assaulted in a dark alleyway by speed-punk gangs The Chats, OFF! and PUP</t>
+  </si>
+  <si>
+    <t>before having it ferociously wrestled from their grasp to present to their ruler and ringleader, Corey Taylor</t>
+  </si>
+  <si>
+    <t>Cage The Elephant’s take on ‘The Unforgiven’, giving James Hetfield’s struggles with religion upon his mother’s death a cultured psych-rock soundtrack, does the trick straight off the bat.</t>
+  </si>
+  <si>
+    <t>Yet further variants on the doom ballad theme from the likes of Vishal Dadlani &amp; Divine (intense), Diet Cig (grungy), Ha*Ash (folk-poppy) and Moses Sumney (soulful and fiddly-fingered) feel like vast overkill.</t>
+  </si>
+  <si>
+    <t>After Flatbush Zombies turn ‘The Unforgiven’ into gnarled electro-rap, there’s a refreshing stretch where J Balvin, Chase &amp; Status and The Neptunes all remould the eastern textures of ‘Wherever I May Roam’ into modernist dancefloor destroyers</t>
+  </si>
+  <si>
+    <t>Later, Portugal. The Man bring a certain Pac-Man element to their very metal ‘Don’t Tread On Me’</t>
+  </si>
+  <si>
+    <t>and all manner of pop, samba and jazz metal mayhem is unleashed upon three re-workings of ‘My Friend Of Misery’.</t>
+  </si>
+  <si>
+    <t>The marquee names are instantly apparent: Miley Cyrus ropes in Elton John and Chad Smith (among others), complete with unnecessary violin solo</t>
+  </si>
+  <si>
+    <t>Phoebe Bridgers produces a far more gorgeous, vaporous junk piano take</t>
+  </si>
+  <si>
+    <t>Depeche Mode‘s Dave Gahan was born to sing it, swathed in an electronic miasma.</t>
+  </si>
+  <si>
+    <t>Kudos to My Morning Jacket and (oh yes) Roxette for banging out pop versions below four minutes</t>
+  </si>
+  <si>
+    <t>there are few more dispiriting moments in music than when you realise ...  that country blues croaker Chris Stapleton is now going to wang on for over eight [minutes].</t>
+  </si>
+  <si>
+    <t>IDLES deliver a sonic slap in the face with ‘The God That Failed’</t>
   </si>
 </sst>
 </file>
@@ -207,7 +393,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,13 +418,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -375,18 +554,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -684,67 +857,70 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -759,73 +935,70 @@
     <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -835,14 +1008,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1164,10 +1339,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="B80" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67:E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55" outlineLevelCol="6"/>
@@ -1176,7 +1351,7 @@
     <col min="2" max="2" width="10.6576576576577" customWidth="1"/>
     <col min="3" max="3" width="10.8828828828829" customWidth="1"/>
     <col min="4" max="4" width="31.2702702702703" style="1" customWidth="1"/>
-    <col min="5" max="5" width="65.4774774774775" style="1" customWidth="1"/>
+    <col min="5" max="5" width="136.828828828829" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.5135135135135" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1184,14 +1359,14 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -1259,10 +1434,10 @@
       <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F8" t="s">
@@ -1316,7 +1491,7 @@
       <c r="C14" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -1366,7 +1541,7 @@
       <c r="C21" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -1449,6 +1624,298 @@
     <row r="36" ht="29.15" spans="5:5">
       <c r="E36" s="1" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="37" ht="58.3" spans="2:5">
+      <c r="B37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" ht="29.15" spans="5:5">
+      <c r="E38" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" ht="29.15" spans="5:5">
+      <c r="E39" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" ht="43.7" spans="5:5">
+      <c r="E40" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" ht="29.15" spans="5:5">
+      <c r="E41" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" ht="29.15" spans="5:5">
+      <c r="E42" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" ht="43.7" spans="5:5">
+      <c r="E43" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" ht="43.7" spans="5:5">
+      <c r="E44" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" ht="29.15" spans="5:5">
+      <c r="E45" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" ht="29.15" spans="5:5">
+      <c r="E46" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" ht="43.7" spans="5:5">
+      <c r="E47" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" ht="29.15" spans="5:5">
+      <c r="E48" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" ht="29.15" spans="2:5">
+      <c r="B49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" t="s">
+        <v>72</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" ht="29.15" spans="5:5">
+      <c r="E50" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" ht="29.15" spans="5:5">
+      <c r="E51" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="5:5">
+      <c r="E52" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" ht="29.15" spans="5:5">
+      <c r="E53" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" ht="29.15" spans="5:5">
+      <c r="E54" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" ht="29.15" spans="5:5">
+      <c r="E55" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="5:5">
+      <c r="E56" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" ht="29.15" spans="5:5">
+      <c r="E57" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="5:5">
+      <c r="E58" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" ht="29.15" spans="5:5">
+      <c r="E59" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" ht="29.15" spans="5:5">
+      <c r="E60" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" ht="29.15" spans="5:5">
+      <c r="E61" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" ht="29.15" spans="5:5">
+      <c r="E62" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" ht="29.15" spans="5:5">
+      <c r="E63" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" ht="29.15" spans="5:5">
+      <c r="E64" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" ht="43.7" spans="5:5">
+      <c r="E65" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" ht="131.15" spans="5:5">
+      <c r="E66" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" ht="58.3" spans="2:5">
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67" t="s">
+        <v>93</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" ht="43.7" spans="5:5">
+      <c r="E68" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" ht="29.15" spans="5:5">
+      <c r="E69" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="5:5">
+      <c r="E70" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="5:5">
+      <c r="E71" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="5:5">
+      <c r="E72" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="5:5">
+      <c r="E73" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="5:5">
+      <c r="E74" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" ht="29.15" spans="5:5">
+      <c r="E75" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" ht="29.15" spans="5:5">
+      <c r="E76" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" ht="29.15" spans="5:5">
+      <c r="E77" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" ht="29.15" spans="5:5">
+      <c r="E78" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" ht="43.7" spans="5:5">
+      <c r="E79" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" ht="43.7" spans="5:5">
+      <c r="E80" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" ht="58.3" spans="5:5">
+      <c r="E81" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="82" ht="29.15" spans="5:5">
+      <c r="E82" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" ht="29.15" spans="5:5">
+      <c r="E83" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="84" ht="29.15" spans="5:5">
+      <c r="E84" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="5:5">
+      <c r="E85" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="86" ht="29.15" spans="5:5">
+      <c r="E86" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="87" ht="29.15" spans="5:5">
+      <c r="E87" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="88" ht="43.7" spans="5:5">
+      <c r="E88" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="89" spans="5:5">
+      <c r="E89" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1456,6 +1923,8 @@
     <hyperlink ref="D8" r:id="rId1" display="https://www.clashmusic.com/reviews/v-a-the-metallica-blacklist/"/>
     <hyperlink ref="D14" r:id="rId2" display="https://www.independent.co.uk/arts-entertainment/music/reviews/metallica-blacklist-review-common-album-b1916443.html"/>
     <hyperlink ref="D21" r:id="rId3" display="https://www.thelineofbestfit.com/reviews/albums/metallica-the-blacklist-album-review"/>
+    <hyperlink ref="D37" r:id="rId4" display="https://www.loudersound.com/reviews/the-metallica-blacklist-thrash-icons-landmark-album-gets-covered-across-the-musical-spectrum"/>
+    <hyperlink ref="D67" r:id="rId5" display="https://www.nme.com/reviews/album/various-artists-the-metallica-blacklist-review-black-album-3042648" tooltip="https://www.nme.com/reviews/album/various-artists-the-metallica-blacklist-review-black-album-3042648"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/reception.xlsx
+++ b/reception.xlsx
@@ -29,9 +29,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="271">
-  <si>
-    <t>Track Number</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="246">
+  <si>
+    <t>Track</t>
   </si>
   <si>
     <t>Author</t>
@@ -49,12 +49,6 @@
     <t>Sentiment</t>
   </si>
   <si>
-    <t>Categories</t>
-  </si>
-  <si>
-    <t>Word Count Score</t>
-  </si>
-  <si>
     <t>Roisin O'Connor &amp; Elizabeth Aubrey</t>
   </si>
   <si>
@@ -64,10 +58,7 @@
     <t>https://www.independent.co.uk/arts-entertainment/music/reviews/metallica-blacklist-review-common-album-b1916443.html</t>
   </si>
   <si>
-    <t>But Alessia Cara triumphs ... abandoning her R&amp;B roots in place of a snarling, agile vocal performance, with a delicious pinch of pop-punk on the verses providing additional spice.</t>
-  </si>
-  <si>
-    <t>genre, proficiency</t>
+    <t>But Alessia Cara triumphs ... abandoning her R&amp;B roots in place of a &lt;proficiency&gt;snarling, agile vocal performance,&lt;/proficiency&gt; with a &lt;genre&gt;delicious pinch of pop-punk&lt;/genre&gt; on the verses providing additional spice.</t>
   </si>
   <si>
     <t>Sam Walker-Smart</t>
@@ -79,10 +70,7 @@
     <t>https://www.clashmusic.com/reviews/v-a-the-metallica-blacklist/</t>
   </si>
   <si>
-    <t xml:space="preserve">Mac DeMarco['s] hella fun stab at ‘Enter Sandman’ add[s] some garage rock panache to this guitar shop classic. It’s heavy, it’s goofy, and he sounds like he’s having the time of his life with it. </t>
-  </si>
-  <si>
-    <t>genre</t>
+    <t xml:space="preserve">Mac DeMarco['s] hella fun stab at 'Enter Sandman' add[s] some &lt;genre&gt;garage rock panache&lt;/genre&gt; to this guitar shop classic. It's heavy, it's goofy, and he sounds like he's having the time of his life with it. </t>
   </si>
   <si>
     <t>Mark Beaumont</t>
@@ -94,10 +82,7 @@
     <t>https://www.nme.com/reviews/album/various-artists-the-metallica-blacklist-review-black-album-3042648</t>
   </si>
   <si>
-    <t>Mac DeMarco’s spirited if wobbly attempt to give it its full metal dues</t>
-  </si>
-  <si>
-    <t>proficiency</t>
+    <t>Mac DeMarco's &lt;proficiency&gt;spirited if wobbly&lt;/proficiency&gt; attempt to give it its full metal dues</t>
   </si>
   <si>
     <t>Joe Gross</t>
@@ -109,10 +94,7 @@
     <t>https://www.rollingstone.com/music/music-album-reviews/the-metallica-blacklist-1221950/</t>
   </si>
   <si>
-    <t>(Then again, nobody, including ... Mac DeMarco, go very afield with that one.)</t>
-  </si>
-  <si>
-    <t>memorability</t>
+    <t>(Then again, &lt;loyalty&gt;nobody, including ... Mac DeMarco, go very afield&lt;/loyalty&gt; with that one.)</t>
   </si>
   <si>
     <t>Joe Daly</t>
@@ -124,7 +106,7 @@
     <t>https://www.loudersound.com/reviews/the-metallica-blacklist-thrash-icons-landmark-album-gets-covered-across-the-musical-spectrum</t>
   </si>
   <si>
-    <t xml:space="preserve">Ghost transform Enter Sandman into a euphoric slice of 70s hard rock with snarling riffs, piano-driven melodies and Papa’s witchy, layered vocals. </t>
+    <t xml:space="preserve">Ghost transform Enter Sandman into a &lt;genre&gt;euphoric slice of 70s hard rock&lt;/genre&gt; with &lt;instrumentation&gt;snarling riffs, piano-driven melodies&lt;/instrumentation&gt; and Papa's witchy, layered vocals. </t>
   </si>
   <si>
     <t>Max Morin</t>
@@ -136,37 +118,28 @@
     <t>https://metalinjection.net/reviews/metallica-the-metallica-blacklist</t>
   </si>
   <si>
-    <t>Ghost have definitely been waiting to cover “Enter Sandman” forever and it comes out with their distinct organ-heavy energy.</t>
-  </si>
-  <si>
-    <t>interpretation</t>
-  </si>
-  <si>
-    <t>with the rear of the field made up by Ghost’s gloss-rock pantomime version</t>
-  </si>
-  <si>
-    <t>genre, loyalty</t>
-  </si>
-  <si>
-    <t>(Then again, nobody, including Ghost ... go very afield with that one.)</t>
-  </si>
-  <si>
-    <t>loyalty</t>
-  </si>
-  <si>
-    <t>Colombia’s Grammy-collecting megastar, Juanes, funks up Enter Sandman with a bit of Latin flavour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">...but you’d still be hard-pressed to remember it among the numerous other versions. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">...Juanes, the Colombian pop musician who returns to his roots for a reggaeton “Enter Sandman”. </t>
-  </si>
-  <si>
-    <t>(Then again, nobody, including  ... Juanes ... go very afield with that one.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rina Sawayama is an industrial queen in a maelstrom of crunchy riffs and chugging bass. </t>
+    <t>Ghost have definitely been waiting to cover "Enter Sandman" forever and it comes out with their &lt;memorability&gt;distinct organ-heavy energy&lt;/memorability&gt;.</t>
+  </si>
+  <si>
+    <t>with the rear of the field made up by Ghost's &lt;genre&gt;gloss-rock pantomime&lt;/genre&gt; version</t>
+  </si>
+  <si>
+    <t>(Then again, &lt;loyalty&gt;nobody, including Ghost ... go very afield&lt;/loyalty&gt; with that one.)</t>
+  </si>
+  <si>
+    <t>Colombia's &lt;reputation&gt;Grammy-collecting megastar&lt;/reputation&gt;, Juanes, &lt;genre&gt;funks up Enter Sandman with a bit of Latin flavour&lt;/genre&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...but you'd still be &lt;memorability&gt;hard-pressed to remember it&lt;/memorability&gt; among the numerous other versions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">...Juanes, the Colombian pop musician who returns to his roots for a &lt;genre&gt;reggaeton&lt;/genre&gt; "Enter Sandman". </t>
+  </si>
+  <si>
+    <t>(Then again, &lt;loyalty&gt;nobody, including  ... Juanes ... go very afield&lt;/loyalty&gt; with that one.)</t>
+  </si>
+  <si>
+    <t>Rina Sawayama is an &lt;genre&gt;industrial queen&lt;/genre&gt; in a maelstrom of &lt;instrumentation&gt;crunchy riffs and chugging bass.&lt;/instrumentation&gt;</t>
   </si>
   <si>
     <t>Steve Lampiris</t>
@@ -178,13 +151,13 @@
     <t>https://www.thelineofbestfit.com/reviews/albums/metallica-the-blacklist-album-review</t>
   </si>
   <si>
-    <t>pop-industrial (Rina Sawayama’s “Enter Sandman”)</t>
-  </si>
-  <si>
-    <t>Rina Sawayama turns the same song into a thrash/dance tune.</t>
-  </si>
-  <si>
-    <t>In the battle for ‘Enter Sandman’, Rina Sawayama’s crazed electro-storm ... triumphs</t>
+    <t>&lt;genre&gt;pop-industrial&lt;/genre&gt; (Rina Sawayama's "Enter Sandman")</t>
+  </si>
+  <si>
+    <t>Rina Sawayama turns the same song into a &lt;genre&gt;thrash/dance tune.&lt;/genre&gt;</t>
+  </si>
+  <si>
+    <t>In the battle for 'Enter Sandman', Rina Sawayama's &lt;genre&gt;crazed electro-storm&lt;/genre&gt; ... triumphs</t>
   </si>
   <si>
     <t>Brad Sanders</t>
@@ -196,61 +169,55 @@
     <t>https://pitchfork.com/reviews/albums/metallica-the-metallica-blacklist/</t>
   </si>
   <si>
-    <t>The spirit of the release is better captured by the thumping, maximalist pop of Rina Sawayama’s “Enter Sandman”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It’s not that Weezer’s “Sandman” ... (among others) are bad; instead, they’re simply uninteresting. They don’t add anything new. “It’s a little stock,” in other words. </t>
-  </si>
-  <si>
-    <t>But the hits outweigh the misses by a mile, especially when you’ve got hitters like ... Weezer ... in the line-up.</t>
-  </si>
-  <si>
-    <t>reputation</t>
-  </si>
-  <si>
-    <t>Don’t miss more covers by ... Weezer</t>
-  </si>
-  <si>
-    <t>Weezer’s power-chord overload</t>
-  </si>
-  <si>
-    <t>Weezer, who scored an improbable hit in 2018 by covering Toto, sleepwalk through a carbon copy of “Enter Sandman” that follows the original note-for-note except when they interpolate a lick from “Buddy Holly.”</t>
-  </si>
-  <si>
-    <t>Weezer doing “Enter Sandman” sounds, well, exactly like Weezer covering “Enter Sandman”</t>
-  </si>
-  <si>
-    <t>Both trump Sam Fender’s soul effort</t>
-  </si>
-  <si>
-    <t>Closely related, Jason Isbell and The 400 Unit turn Sad But True into a boozy roadhouse shakedown.</t>
-  </si>
-  <si>
-    <t>Jason Isbell and The 400 Unit ... throw their oversized cowboy hats in the ring.</t>
-  </si>
-  <si>
-    <t>but face stiff competition from Jason Isbell And The 400 Unit (demented skiffle rock)</t>
-  </si>
-  <si>
-    <t>Jason Isbell and the 400 Unit turn “Sad But True” into a roots rave-up</t>
-  </si>
-  <si>
-    <t>but face stiff competition from ... the Mexican Institute Of Sound (carnival freak rave)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It’s not that ... Royal Blood’s “Sad,” ... (among others) are bad; instead, they’re simply uninteresting. They don’t add anything new. “It’s a little stock,” in other words. </t>
-  </si>
-  <si>
-    <t>But the hits outweigh the misses by a mile, especially when you’ve got hitters like Royal Blood ... in the line-up.</t>
-  </si>
-  <si>
-    <t>Royal Blood continue to sound bigger than their two members on a worshipful “Sad But True”</t>
-  </si>
-  <si>
-    <t>proficiency, reputation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Royal Blood ... channelling faithful Kirk Hammett riffage </t>
+    <t>The spirit of the release is better captured by the thumping, maximalist pop of Rina Sawayama's "Enter Sandman"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's not that Weezer's "Sandman" ... (among others) are bad; instead, they're simply uninteresting. &lt;loyalty&gt;They don't add anything new.&lt;/loyalty&gt; "It's a little stock," in other words. </t>
+  </si>
+  <si>
+    <t>But the hits outweigh the misses by a mile, especially when you've got &lt;reputation&gt;hitters like ... Weezer ... in the line-up&lt;/reputation&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;memorability&gt;Don't miss&lt;memorability&gt; more covers by ... Weezer</t>
+  </si>
+  <si>
+    <t>Weezer's &lt;instrumentation&gt;power-chord overload&lt;/instrumentation</t>
+  </si>
+  <si>
+    <t>Weezer, who scored an improbable hit in 2018 by covering Toto, &lt;loyalty&gt;sleepwalk through a carbon copy of "Enter Sandman" that follows the original note-for-note&lt;/loyalty&gt; except when they interpolate a lick from "Buddy Holly."</t>
+  </si>
+  <si>
+    <t>Weezer doing "Enter Sandman" &lt;reputation&gt;sounds, well, exactly like Weezer&lt;/reputation&gt; covering "Enter Sandman"</t>
+  </si>
+  <si>
+    <t>Both &lt;interpretation&gt;trump Sam Fender's soul effort&lt;/interpretation&gt;</t>
+  </si>
+  <si>
+    <t>Closely related, Jason Isbell and The 400 Unit turn Sad But True into a &lt;genre&gt;boozy roadhouse shakedown&lt;/genre&gt;.</t>
+  </si>
+  <si>
+    <t>Jason Isbell and The 400 Unit ... throw their &lt;genre&gt;oversized cowboy hats in the ring&lt;/genre&gt;.</t>
+  </si>
+  <si>
+    <t>but face stiff competition from Jason Isbell And The 400 Unit (&lt;genre&gt;demented skiffle rock&lt;/genre&gt;)</t>
+  </si>
+  <si>
+    <t>Jason Isbell and the 400 Unit turn "Sad But True" into a &lt;genre&gt;roots rave-up&lt;/genre&gt;</t>
+  </si>
+  <si>
+    <t>but face stiff competition from ... the Mexican Institute Of Sound (&lt;genre&gt;carnival freak rave&lt;/genre&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's not that ... Royal Blood's "Sad," ... (among others) are bad; instead, &lt;loyalty&gt;they're simply uninteresting. They don't add anything new.&lt;/loyalty&gt; "It's a little stock," in other words. </t>
+  </si>
+  <si>
+    <t>But the hits outweigh the misses by a mile, especially when you've got &lt;reputation&gt;hitters like Royal Blood ... in the line-up&lt;/reputation&gt;.</t>
+  </si>
+  <si>
+    <t>Royal Blood &lt;proficiency&gt;continue to sound bigger&lt;/proficiency&gt; &lt;reputation&gt;than their two members&lt;/reputation&gt; on a worshipful "Sad But True"</t>
+  </si>
+  <si>
+    <t>Royal Blood ... &lt;loyalty&gt;channelling faithful Kirk Hammett riffage&lt;/loyalty&gt;</t>
   </si>
   <si>
     <t>Fred Thomas</t>
@@ -262,365 +229,323 @@
     <t>https://www.allmusic.com/album/the-metallica-blacklist-mw0003548306</t>
   </si>
   <si>
-    <t>St. Vincent's hard-edged electro-rock version of "Sad But True" stand[s] out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other notable performances include St. Vincent’s smouldering, pseudo-industrial take on Sad But True </t>
-  </si>
-  <si>
-    <t xml:space="preserve">St. Vincent is a confirmed metalhead, but her synth-pop “Sad But True” won’t please metal fans or her own listeners. </t>
-  </si>
-  <si>
-    <t>St. Vincent ... taking it for an art-pop frolic through an industrial wasteland</t>
-  </si>
-  <si>
-    <t>St. Vincent creates hazy electro-rock weirdness with it</t>
-  </si>
-  <si>
-    <t>White Reaper's chugging take on "Sad But True" is especially true to form</t>
-  </si>
-  <si>
-    <t>The collection features everything from safe recreations (White Reaper’s “Sad But True”)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Don’t miss more covers by ... White Reaper. </t>
-  </si>
-  <si>
-    <t>Biffy Clyro’s Holier Than Thou – an onslaught of surging beats, razor-wire riffing and a supernova-sized breakdown.</t>
-  </si>
-  <si>
-    <t>proficiency, composition</t>
-  </si>
-  <si>
-    <t>Biffy Clyro make an early claim on ‘Holier Than Thou’ with a sophisticated yet brutal reading plus anthemic coda</t>
-  </si>
-  <si>
-    <t>interpretation, composition</t>
-  </si>
-  <si>
-    <t>Mad Aussies The Chats bring some snot and snarl to ‘Holier Than Though,’ morphing the original’s bruising beat into a lost punk classic circa 1977.</t>
-  </si>
-  <si>
-    <t>only to be assaulted in a dark alleyway by speed-punk gangs The Chats</t>
-  </si>
-  <si>
-    <t>Off! turn in a positively blistering version that anyone unfamiliar with the original could credibly mistake for an old-school punk anthem.</t>
-  </si>
-  <si>
-    <t>Don’t miss more covers by ... Off!</t>
-  </si>
-  <si>
-    <t>only to be assaulted in a dark alleyway by speed-punk gangs ... OFF!</t>
-  </si>
-  <si>
-    <t>Elsewhere, you get snotty garage rock (PUP’s “Holier Than Thou Art”)</t>
-  </si>
-  <si>
-    <t>Don’t miss more covers by Pup</t>
-  </si>
-  <si>
-    <t>only to be assaulted in a dark alleyway by speed-punk gangs ... PUP</t>
-  </si>
-  <si>
-    <t>Slipknot frontman Corey Taylor’s gut-wrenching roars on “Holier Than Thou” are just as impressive as James Hetfield’s.</t>
-  </si>
-  <si>
-    <t>reputation, loyalty</t>
-  </si>
-  <si>
-    <t>Additionally, there are also some nifty moments—like the “Whiplash” tease at the end of Corey Taylor’s ... “Holier,”</t>
-  </si>
-  <si>
-    <t>composition</t>
-  </si>
-  <si>
-    <t>Corey Taylor’s otherwise-pedestrian take on “Holier,”</t>
-  </si>
-  <si>
-    <t>But the hits outweigh the misses by a mile, especially when you’ve got hitters like ... Corey Taylor in the line-up.</t>
-  </si>
-  <si>
-    <t>Corey Taylor sounds like Corey Taylor on “Holier Than Thou”</t>
-  </si>
-  <si>
-    <t>before having it ferociously wrestled from their grasp to present to their ruler and ringleader, Corey Taylor</t>
-  </si>
-  <si>
-    <t>Slipknot’s Corey Taylor clearly loves “Holier Than Thou,” but his note-perfect interpretation feels out of place.</t>
-  </si>
-  <si>
-    <t>Cage The Elephant’s take on ‘The Unforgiven’, giving James Hetfield’s struggles with religion upon his mother’s death a cultured psych-rock soundtrack, does the trick straight off the bat.</t>
-  </si>
-  <si>
-    <t>interpretation, genre</t>
-  </si>
-  <si>
-    <t>Indian electronica and rap (“The Unforgiven” from Vishal Dadlani and DIVINE)</t>
-  </si>
-  <si>
-    <t>Bollywood legend Vishal Dadlani valiantly takes on “The Unforgiven”, but it’s too sappy to be worth more than one listen.</t>
-  </si>
-  <si>
-    <t>Yet further variants on the doom ballad theme from the likes of Vishal Dadlani &amp; Divine (intense) ... feel like vast overkill.</t>
-  </si>
-  <si>
-    <t>interpretation, repetition</t>
-  </si>
-  <si>
-    <t>Diet Cig sounds like Phoebe Bridgers if she listened to more Wolf Alice, but somehow not as cool as that should be.</t>
-  </si>
-  <si>
-    <t>Yet further variants on the doom ballad theme from the likes of ... Diet Cig (grungy) ... feel like vast overkill.</t>
-  </si>
-  <si>
-    <t>...nifty moments—like... Meechy Darko’s song-stealing verse during Flatbush Zombies’s “The Unforgiven,”</t>
-  </si>
-  <si>
-    <t>Flatbush Zombies turn ‘The Unforgiven’ into gnarled electro-rap</t>
-  </si>
-  <si>
-    <t>Flatbush Zombies build a woozy hip-hop epic around a pitch-shifted sample of “The Unforgiven,” splashing wrenchingly autobiographical verses on James Hetfield’s vaguely anti-authoritarian canvas.</t>
-  </si>
-  <si>
-    <t>genre, composition, interpretation, production</t>
-  </si>
-  <si>
-    <t>Ha*Ash’s version of The Unforgiven – a dreamy slice of acoustic balladry that feels like the theme to a mythic quest.</t>
-  </si>
-  <si>
-    <t>Yet further variants on the doom ballad theme from the likes of ... Ha*Ash (folk-poppy) ... feel like vast overkill.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghanaian-American singer-songwriter Moses Sumney brings soul and pathos to ‘The Unforgiven,’ a true highlight and the most beautiful moment of the set. </t>
-  </si>
-  <si>
-    <t>Moses Sumney’s delicate and achingly beautiful take on “The Unforgiven"</t>
-  </si>
-  <si>
-    <t>Yet further variants on the doom ballad theme from the likes of ... Moses Sumney (soulful and fiddly-fingered) feel like vast overkill.</t>
-  </si>
-  <si>
-    <t>and the disquieting beauty of Moses Sumney’s “The Unforgiven.”</t>
-  </si>
-  <si>
-    <t>to left-field rejiggering (J Balvin’s rap reimagining of “Wherever I May Roam”)</t>
-  </si>
-  <si>
-    <t>...nifty moments—like... Tainy’s nice-trick production for J Balvin's “Wherever” that cuts up the original’s guitar solo into its own hook and then morphs it into an emergency siren</t>
-  </si>
-  <si>
-    <t>composition, production</t>
-  </si>
-  <si>
-    <t>But by the time J Balvin is rapping “Wherever I May Roam” in Spanish, all bets are off.</t>
-  </si>
-  <si>
-    <t>[T]here’s a refreshing stretch where J Balvin ... remould[s] the eastern textures of ‘Wherever I May Roam’ into modernist dancefloor destroyers</t>
-  </si>
-  <si>
-    <t>Reggaeton hitmaker J Balvin drops off a version of “Wherever I May Roam” so half-assed that it seems like he accidentally delivered the demo.</t>
-  </si>
-  <si>
-    <t>reputation, proficiency</t>
-  </si>
-  <si>
-    <t>Chase &amp; Status bring in Background Gee for Wherever I May Roam, showcasing some filthy hip hop grooves</t>
+    <t>St. Vincent's &lt;genre&gt;hard-edged electro-rock version&lt;/genre&gt; of "Sad But True" stand[s] out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other notable performances include St. Vincent's &lt;genre&gt;smouldering, pseudo-industrial take&lt;/genre&gt; on Sad But True </t>
+  </si>
+  <si>
+    <t xml:space="preserve">St. Vincent is a confirmed metalhead, but her &lt;genre&gt;synth-pop "Sad But True" won't please metal fans&lt;/genre&gt; or her own listeners. </t>
+  </si>
+  <si>
+    <t>St. Vincent ... taking it for an &lt;genre&gt;art-pop frolic&lt;/genre&gt; through an &lt;genre&gt;industrial wasteland&lt;/genre&gt;</t>
+  </si>
+  <si>
+    <t>St. Vincent creates &lt;genre&gt;hazy electro-rock weirdness&lt;/genre&gt; with it</t>
+  </si>
+  <si>
+    <t>White Reaper's &lt;instrumentation&gt;chugging&lt;/instrumentation&gt; take on "Sad But True" is &lt;loyalty&gt;especially true to form&lt;/loyalty&gt;</t>
+  </si>
+  <si>
+    <t>The collection features everything from &lt;loyalty&gt;safe recreations&lt;/loyalty&gt; (White Reaper's "Sad But True")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;memorability&gt;Don't miss&lt;/memorability&gt; more covers by ... White Reaper. </t>
+  </si>
+  <si>
+    <t>Biffy Clyro's Holier Than Thou – an onslaught of &lt;instrumentation&gt;surging beats, razor-wire riffing&lt;/instrumentation&gt; and a &lt;composition&gt;supernova-sized breakdown&lt;/composition&gt;.</t>
+  </si>
+  <si>
+    <t>Biffy Clyro make an early claim on 'Holier Than Thou' with a &lt;interpretation&gt;sophisticated yet brutal reading&lt;/interpretation&gt; plus &lt;composition&gt;anthemic coda&lt;/composition&gt;</t>
+  </si>
+  <si>
+    <t>Mad Aussies The Chats bring some &lt;interpretation&gt;snot and snarl&lt;/interpretation&gt; to 'Holier Than Though,' morphing the original's bruising beat into a &lt;genre&gt;lost punk classic circa 1977&lt;/genre&gt;.</t>
+  </si>
+  <si>
+    <t>only to be assaulted in a dark alleyway by &lt;genre&gt;speed-punk gangs&lt;/genre&gt; The Chats</t>
+  </si>
+  <si>
+    <t>Off! turn in a positively blistering version that anyone unfamiliar with the original could credibly mistake for an &lt;genre&gt;old-school punk anthem&lt;/genre&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;memorability&gt;Don't miss&lt;/memorability&gt; more covers by ... Off!</t>
+  </si>
+  <si>
+    <t>only to be assaulted in a dark alleyway by &lt;genre&gt;speed-punk gangs&lt;/genre&gt; ... OFF!</t>
+  </si>
+  <si>
+    <t>Elsewhere, you get &lt;genre&gt;snotty garage rock&lt;/genre&gt; (PUP's "Holier Than Thou Art")</t>
+  </si>
+  <si>
+    <t>&lt;genre&gt;Don't miss&lt;/genre&gt; more covers by Pup</t>
+  </si>
+  <si>
+    <t>only to be assaulted in a dark alleyway by &lt;genre&gt;speed-punk gangs&lt;/genre&gt; ... PUP</t>
+  </si>
+  <si>
+    <t>&lt;reputation&gt;Slipknot frontman&lt;/reputation&gt; Corey Taylor's gut-wrenching roars on "Holier Than Thou" are &lt;reputation&gt;just as impressive as James Hetfield's&lt;/reputation&gt;.</t>
+  </si>
+  <si>
+    <t>Additionally, there are also some nifty moments—like the &lt;composition&gt;"Whiplash" tease at the end of Corey Taylor's ... "Holier,"&lt;/composition&gt;</t>
+  </si>
+  <si>
+    <t>Corey Taylor's &lt;memorability&gt;otherwise-pedestrian&lt;/memorability&gt; take on "Holier,"</t>
+  </si>
+  <si>
+    <t>But the hits outweigh the misses by a mile, especially when you've got &lt;reputation&gt;hitters like ... Corey Taylor&lt;/reputation&gt; in the line-up.</t>
+  </si>
+  <si>
+    <t>&lt;reputation&gt;Corey Taylor sounds like Corey Taylor&lt;/reputation&gt; on "Holier Than Thou"</t>
+  </si>
+  <si>
+    <t>before having it ferociously wrestled from their grasp to present to their &lt;reputation&gt;ruler and ringleader, Corey Taylor&lt;/reputation&gt;</t>
+  </si>
+  <si>
+    <t>Slipknot's Corey Taylor clearly loves "Holier Than Thou," but his &lt;loyalty&gt;note-perfect interpretation feels out of place&lt;/loyalty&gt;.</t>
+  </si>
+  <si>
+    <t>Cage The Elephant's &lt;interpretation&gt;take on 'The Unforgiven',&lt;/interpretation&gt; giving James Hetfield's struggles with religion upon his mother's death a &lt;genre&gt;cultured psych-rock soundtrack&lt;/genre&gt;, does the trick straight off the bat.</t>
+  </si>
+  <si>
+    <t>&lt;genre&gt;Indian electronica and rap&lt;/genre&gt; ("The Unforgiven" from Vishal Dadlani and DIVINE)</t>
+  </si>
+  <si>
+    <t>Bollywood legend Vishal Dadlani valiantly takes on "The Unforgiven", but it's too sappy to be worth more than one listen.</t>
+  </si>
+  <si>
+    <t>Yet further variants on the &lt;genre&gt;doom ballad theme from the likes of Vishal Dadlani &amp; Divine (intense)&lt;/genre&gt; ... feel like vast overkill.</t>
+  </si>
+  <si>
+    <t>Diet Cig &lt;interpretation&gt;sounds like Phoebe Bridgers if she listened to more Wolf Alice&lt;/interpretation&gt;, but somehow not as cool as that should be.</t>
+  </si>
+  <si>
+    <t>Yet further variants on the &lt;genre&gt;doom ballad theme from the likes of ... Diet Cig (grungy)&lt;/genre&gt; ... feel like vast overkill.</t>
+  </si>
+  <si>
+    <t>...nifty moments—like... &lt;composition&gt;Meechy Darko's song-stealing verse&lt;/composition&gt; during Flatbush Zombies's "The Unforgiven,"</t>
+  </si>
+  <si>
+    <t>Flatbush Zombies turn 'The Unforgiven' into &lt;genre&gt;gnarled electro-rap&lt;/genre&gt;</t>
+  </si>
+  <si>
+    <t>Flatbush Zombies build a &lt;genre&gt;woozy hip-hop epic&lt;/genre&gt; &lt;composition&gt;around a pitch-shifted sample&lt;/composition&gt; of "The Unforgiven," splashing &lt;interpretation&gt;wrenchingly autobiographical verses&lt;/interpretation&gt; on James Hetfield's vaguely anti-authoritarian canvas.</t>
+  </si>
+  <si>
+    <t>Ha*Ash's version of The Unforgiven – a &lt;genre&gt;dreamy slice of acoustic balladry&lt;/genre&gt; that feels like the theme to a mythic quest.</t>
+  </si>
+  <si>
+    <t>Yet further variants on the &lt;genre&gt;doom ballad theme from the likes of ... Ha*Ash (folk-poppy)&lt;/genre&gt; ... feel like vast overkill.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghanaian-American singer-songwriter Moses Sumney brings &lt;interpretation&gt;soul and pathos&lt;/interpretation&gt; to 'The Unforgiven,' a true highlight and the most beautiful moment of the set. </t>
+  </si>
+  <si>
+    <t>Moses Sumney's &lt;interpretation&gt;delicate and achingly beautiful take&lt;/interpretation&gt; on "The Unforgiven"</t>
+  </si>
+  <si>
+    <t>Yet further variants on the &lt;genre&gt;doom ballad theme from the likes of ... Moses Sumney (soulful and fiddly-fingered)&lt;/genre&gt; feel like vast overkill.</t>
+  </si>
+  <si>
+    <t>and the &lt;interpretation&gt;disquieting beauty&lt;/genre&gt; of Moses Sumney's "The Unforgiven."</t>
+  </si>
+  <si>
+    <t>to left-field rejiggering (J Balvin's &lt;genre&gt;rap reimagining&lt;/genre&gt; of "Wherever I May Roam")</t>
+  </si>
+  <si>
+    <t>...nifty moments—like... Tainy's &lt;composition&gt;nice-trick production for J Balvin's "Wherever" that cuts up the original's guitar solo into its own hook and then morphs it into an emergency siren&lt;/composition&gt;</t>
+  </si>
+  <si>
+    <t>But by the time J Balvin is &lt;genre&gt;rapping&lt;/genre&gt; "Wherever I May Roam" in Spanish, all bets are off.</t>
+  </si>
+  <si>
+    <t>[T]here's a refreshing stretch where J Balvin ... &lt;remould[s] the eastern textures of 'Wherever I May Roam' into &lt;/genre&gt;modernist dancefloor destroyers&lt;/genre&gt;</t>
+  </si>
+  <si>
+    <t>&lt;reputation&gt;Reggaeton hitmaker&lt;/reputation&gt; J Balvin drops off a version of "Wherever I May Roam" &lt;proficiency&gt;so half-assed that it seems like he accidentally delivered the demo.&lt;/proficiency&gt;</t>
+  </si>
+  <si>
+    <t>Chase &amp; Status bring in Background Gee for Wherever I May Roam, showcasing some &lt;genre&gt;filthy hip hop grooves&lt;/genre&gt;</t>
   </si>
   <si>
     <t>Chase &amp; Status bring in Background Gee for Wherever I May Roam ... but [leave] listeners waiting for a huge payoff that never arrives.</t>
   </si>
   <si>
-    <t>[T]here’s a refreshing stretch where ... Chase &amp; Status ... remould the eastern textures of ‘Wherever I May Roam’ into modernist dancefloor destroyers</t>
-  </si>
-  <si>
-    <t>[T]here’s a refreshing stretch ... The Neptunes all remould the eastern textures of ‘Wherever I May Roam’ into modernist dancefloor destroyers</t>
-  </si>
-  <si>
-    <t>Jon Pardi throw[s his] oversized cowboy [hat] in the ring.</t>
-  </si>
-  <si>
-    <t>French producer SebastiAn brings some Prince and George-Michael-indebted funk to “Don’t Tread On Me”</t>
-  </si>
-  <si>
-    <t>SebastiAn’s stupid-fun disco-infused house mash-up of “Don’t Tread On Me” and “Nothing Else Matters"</t>
-  </si>
-  <si>
-    <t>genre, composition</t>
-  </si>
-  <si>
-    <t>French producer SebastiAn, ... throws himself fully into the concept by mashing up two tracks into an electro-orchestral funk frippery clumsily titled ‘Don’t Tread On Else Matters’.</t>
-  </si>
-  <si>
-    <t>Later, Portugal. The Man bring a certain Pac-Man element to their very metal ‘Don’t Tread On Me’</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It’s not that ... Volbeat’s “Don’t Tread” (among others) are bad; instead, they’re simply uninteresting. They don’t add anything new. “It’s a little stock,” in other words. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volbeat must be sick of all the comparisons by now, because their “Don’t Tread On Me” features one of The Blacklist’s most faithful renditions. </t>
-  </si>
-  <si>
-    <t>Mongolian marauders The Hu check in with a slamming Through The Never, sung in their native tongue and played with the wild, surging ferocity of a bloodthirsty horde riding into battle.</t>
-  </si>
-  <si>
-    <t>But it’s The Hu's Mongolian-language “Through The Never” that will send fans into fits of musical ecstasy.</t>
-  </si>
-  <si>
-    <t>rising R&amp;B star Tomi Owó, whose version of “Through The Never” manages to balance metal riffs with her angelic voice.</t>
-  </si>
-  <si>
-    <t>Phoebe Bridgers' especially delicate reading</t>
-  </si>
-  <si>
-    <t>style</t>
-  </si>
-  <si>
-    <t>For something completely different, we have Phoebe Bridgers baroque-pop go at ‘Nothing Else Matters,’ twinkling keys and somber strings adding some welcome ambiance to the power ballad.</t>
-  </si>
-  <si>
-    <t>On “Nothing Else Matters”, Bridgers opens with a startlingly beautiful piano motif reminiscent of Chilly Gonzales’s delicate work. Where many have attempted to capture the imposing volume Metallica brought to The Black Album, Bridgers takes the stripped-down route, with magnificent results.</t>
-  </si>
-  <si>
-    <t>Phoebe Bridgers, whose stunning and haunting chamber music reading of “Nothing” is the best of the dozen ...</t>
-  </si>
-  <si>
-    <t>Phoebe Bridgers is here to chill things out with her piano and indie-rock production</t>
-  </si>
-  <si>
-    <t>Phoebe Bridgers produces a far more gorgeous, vaporous junk piano take</t>
-  </si>
-  <si>
-    <t>Phoebe Bridgers’ delicate version feels like a Punisher outtake</t>
-  </si>
-  <si>
-    <t>Phoebe Bridgers (piano and strings)</t>
-  </si>
-  <si>
-    <t>a staggering 12 versions of "Nothing Else Matters" by everyone from Miley Cyrus (appearing along with Yo-Yo Ma, Elton John, and other friends) ... and more.</t>
-  </si>
-  <si>
-    <t>Miley Cyrus, Elton John, the Chili's Chad Smith, and Metallica's own Robert Trujillo join forces for an absolutely stacked cover of 'Nothing Else Matters,' Cyrus channeling Stevie Nicks for some serious 80s wind-machine worthy epicness.</t>
-  </si>
-  <si>
-    <t>We’d already seen Miley Cyrus spark calls for her to abandon pop altogether in favour of a new era as a fully fledged rock star, thanks to her Glastonbury performance of “Nothing Else Matters”. Her recorded version is just as impressive[.]</t>
-  </si>
-  <si>
-    <t>worth checking out, [...] Miley Cyrus’ fascinating mess—featuring six artists including Elton John, Yo-Yo Ma, and Chad Smith</t>
-  </si>
-  <si>
-    <t>Miley Cyrus’s collaboration with Elton John and others on Nothing Else Matters is one of the more memorable tracks</t>
-  </si>
-  <si>
-    <t>All the attention is right on the centre of the album. It's where Miley Cyrus, Elton John, Yo-yo Ma and Chad Smith of Red Hot Chili Peppers deliver the star take. Miley Cyrus has reinvented herself several times at this point, but her recent transformation into The Hard Rock Queen of Karaoke has been unexpected and genuinely great. She has a harsh edge on her voice that has been hiding up to this point, a bluesy rasp that calls to mind PJ Harvey, Courtney Barnett and James Hetfield’s own bark. As their version of “Nothing Else Matters” swells to its climax, it’s clear that this is the only track on The Blacklist that can actually be compared to the original.</t>
-  </si>
-  <si>
-    <t>The marquee names are instantly apparent: Miley Cyrus ropes in Elton John and Chad Smith (among others), complete with unnecessary violin solo</t>
-  </si>
-  <si>
-    <t>Miley Cyrus enlists Elton John and Yo-Yo Ma for no reason other than she can</t>
-  </si>
-  <si>
-    <t>Current covers queen Miley Cyrus assembles an all-star cast for her version,
-including Eton John, Red Hot Chili Peppers drummer Chad Smith and current Metallica bassist Robert Trujillo, her voice at the perfect grit for the iconic ballad.</t>
-  </si>
-  <si>
-    <t>Depeche Mode‘s Dave Gahan was born to sing it, swathed in an electronic miasma.</t>
-  </si>
-  <si>
-    <t>Depeche Mode singer Dave Gahan (maximum lounge crooner)</t>
-  </si>
-  <si>
-    <t>a staggering 12 versions of "Nothing Else Matters" by everyone from ... My Morning Jacket ... and more.</t>
-  </si>
-  <si>
-    <t>My Morning Jacket turning it into a lighthearted ditty that’s ready-made for car commercials.</t>
-  </si>
-  <si>
-    <t>But the bottom has to be My Morning Jacket, who turn “Nothing Else Matters” into a pop rock tune that sounds weak and lacking in bite at the same time. It’s the soundtrack to a bad commercial interrupting your YouTube playlist.</t>
-  </si>
-  <si>
-    <t>Kudos to My Morning Jacket and (oh yes) Roxette for banging out pop versions below four minutes</t>
-  </si>
-  <si>
-    <t>My Morning Jacket (couldn’t sound more MMJ)</t>
-  </si>
-  <si>
-    <t>Swedish pop pioneers Roxette (do the rest, please)</t>
-  </si>
-  <si>
-    <t>a staggering 12 versions of "Nothing Else Matters" by everyone from ... Darius Rucker and more.</t>
-  </si>
-  <si>
-    <t>Darius Rucker (frat dude country in full Nashvegas mode)</t>
-  </si>
-  <si>
-    <t>Chris Stapleton’s has a cool jam at the end</t>
-  </si>
-  <si>
-    <t>country legend Chris Stapleton taps into the gritty defiance of the original with a mean and dusty eight-minute version that rises to the top of the …Blacklist heap</t>
-  </si>
-  <si>
-    <t>Chris Stapleton ... throw[s his] oversized cowboy [hat] in the ring.</t>
+    <t>[T]here's a refreshing stretch where ... Chase &amp; Status ... remould the eastern textures of 'Wherever I May Roam' into &lt;/genre&gt;modernist dancefloor destroyers&lt;/genre&gt;</t>
+  </si>
+  <si>
+    <t>[T]here's a refreshing stretch ... The Neptunes ... remould the eastern textures of 'Wherever I May Roam' into &lt;/genre&gt;modernist dancefloor destroyers&lt;/genre&gt;</t>
+  </si>
+  <si>
+    <t>Jon Pardi throw[s his] &lt;genre&gt;oversized cowboy [hat]&lt;/genre&gt; in the ring.</t>
+  </si>
+  <si>
+    <t>French producer SebastiAn brings some &lt;genre&gt;Prince and George-Michael-indebted funk&lt;/genre&gt; to "Don't Tread On Me"</t>
+  </si>
+  <si>
+    <t>SebastiAn's stupid-fun &lt;genre&gt;disco-infused house&lt;/genre&gt; &lt;composition&gt;mash-up&lt;/composition&gt; of "Don't Tread On Me" and "Nothing Else Matters"</t>
+  </si>
+  <si>
+    <t>French producer SebastiAn, ... throws himself fully into the concept by &lt;composition&gt;mashing up two tracks&lt;/composition&gt; into an &lt;genre&gt;electro-orchestral funk frippery&lt;/genre&gt; clumsily titled 'Don't Tread On Else Matters'.</t>
+  </si>
+  <si>
+    <t>Later, Portugal. The Man bring a certain &lt;genre&gt;Pac-Man element to their very metal&lt;/genre&gt; 'Don't Tread On Me'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's not that ... Volbeat's "Don't Tread" (among others) are bad; instead, &lt;loyalty&gt;they're simply uninteresting. They don't add anything new.&lt;/loyalty&gt; "It's a little stock," in other words. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volbeat must be sick of all the comparisons by now, because their "Don't Tread On Me" features one of The Blacklist's &lt;loyalty&gt;most faithful renditions.&lt;/loyalty&gt; </t>
+  </si>
+  <si>
+    <t>Mongolian marauders The Hu check in with a slamming Through The Never, &lt;interpretation&gt;sung in their native tongue and played with the wild, surging ferocity of a bloodthirsty horde riding into battle&lt;/interpretation&gt;.</t>
+  </si>
+  <si>
+    <t>But it's The Hu's &lt;memorability&gt;Mongolian-language "Through The Never"&lt;/memorability&gt; that will send fans into fits of musical ecstasy.</t>
+  </si>
+  <si>
+    <t>&lt;reputation&gt;rising R&amp;B star&lt;/reputation&gt; Tomi Owó, whose version of "Through The Never" manages to &lt;instrumentation&gt;balance metal riffs with her angelic voice&lt;/instrumentation&gt;.</t>
+  </si>
+  <si>
+    <t>Phoebe Bridgers' &lt;interpretation&gt;especially delicate reading&lt;/interpretation&gt;</t>
+  </si>
+  <si>
+    <t>For something completely different, we have Phoebe Bridgers &lt;genre&gt;baroque-pop&lt;/genre&gt; go at 'Nothing Else Matters,' &lt;instrumentation&gt;twinkling keys and somber strings&lt;/instrumentation&gt; adding some welcome ambiance to the power ballad.</t>
+  </si>
+  <si>
+    <t>On "Nothing Else Matters", Bridgers opens with a &lt;instrumentation&gt;startlingly beautiful piano motif&lt;/instrumentation&gt; reminiscent of Chilly Gonzales's delicate work. Where many have attempted to capture the imposing volume Metallica brought to The Black Album, Bridgers &lt;interpretation&gt;takes the stripped-down route, with magnificent results&lt;/interpretation&gt;.</t>
+  </si>
+  <si>
+    <t>Phoebe Bridgers, whose &lt;interpretation&gt;stunning and haunting&lt;/interpretation&gt; &lt;genre&gt;chamber music reading&lt;/genre&gt; of "Nothing" is the best of the dozen ...</t>
+  </si>
+  <si>
+    <t>Phoebe Bridgers is here to chill things out with her &lt;instrumentation&gt;piano&lt;/instrumentation&gt; and &lt;genre&gt;indie-rock production&lt;/genre&gt;</t>
+  </si>
+  <si>
+    <t>Phoebe Bridgers produces a &lt;genre&gt;far more gorgeous, vaporous junk&lt;/genre&gt; &lt;instrumentation&gt;piano&lt;/instrumentation&gt; take</t>
+  </si>
+  <si>
+    <t>Phoebe Bridgers' delicate version &lt;interpretation&gt;feels like a Punisher outtake&lt;/interpretation&gt;</t>
+  </si>
+  <si>
+    <t>Phoebe Bridgers (&lt;instrumentation&gt;piano and strings&lt;/instrumentation&gt;)</t>
+  </si>
+  <si>
+    <t>a &lt;uniqueness&gt;&lt;uniqueness&gt;staggering 12 versions&lt;/uniqueness&gt;&lt;/uniqueness&gt; of "Nothing Else Matters" by everyone from &lt;reputation&gt;Miley Cyrus (appearing along with Yo-Yo Ma, Elton John, and other friends)&lt;/reputation&gt; ... and more.</t>
+  </si>
+  <si>
+    <t>&lt;reputation&gt;Miley Cyrus, Elton John, the Chili's Chad Smith, and Metallica's own Robert Trujillo join forces&lt;/reputation&gt; for an absolutely stacked cover of 'Nothing Else Matters,' Cyrus channeling Stevie Nicks for some &lt;proficiency&gt;serious 80s wind-machine worthy epicness&lt;/proficiency&gt;.</t>
+  </si>
+  <si>
+    <t>We'd already seen Miley Cyrus spark calls for her to abandon pop altogether in favour of a new era as a fully fledged rock star, thanks to her &lt;reputation&gt;Glastonbury performance of "Nothing Else Matters"&lt;/reputation&gt;. Her recorded version is just as impressive[.]</t>
+  </si>
+  <si>
+    <t>worth checking out, [...] &lt;reputation&gt;Miley Cyrus' fascinating mess—featuring six artists including Elton John, Yo-Yo Ma, and Chad Smith&lt;/reputation&gt;</t>
+  </si>
+  <si>
+    <t>&lt;reputation&gt;Miley Cyrus's collaboration with Elton John and others&lt;/reputation&gt; on Nothing Else Matters is one of the more memorable tracks</t>
+  </si>
+  <si>
+    <t>All the attention is right on the centre of the album. It's where &lt;reputation&gt;Miley Cyrus, Elton John, Yo-yo Ma and Chad Smith of Red Hot Chili Peppers deliver the star take&lt;/reputation&gt;. Miley Cyrus has reinvented herself several times at this point, but her recent transformation into The Hard Rock Queen of Karaoke has been unexpected and genuinely great. She has a harsh edge on her voice that has been hiding up to this point, a &lt;interpretation&gt;bluesy rasp that calls to mind PJ Harvey, Courtney Barnett and James Hetfield's own bark&lt;/interpretation&gt;. As their version of "Nothing Else Matters" swells to its climax, it's clear that this is the only track on The Blacklist that can actually be compared to the original.</t>
+  </si>
+  <si>
+    <t>The &lt;reputation&gt;marquee names are instantly apparent: Miley Cyrus ropes in Elton John and Chad Smith (among others)&lt;/reputation&gt;, complete with &lt;composition&gt;unnecessary violin solo&lt;/composition&gt;</t>
+  </si>
+  <si>
+    <t>Miley Cyrus &lt;reputation&gt;enlists Elton John and Yo-Yo Ma for no reason other than she can&lt;/reputation&gt;</t>
+  </si>
+  <si>
+    <t>Current covers queen Miley Cyrus assembles an &lt;reputation&gt;all-star cast for her version,
+including Eton John, Red Hot Chili Peppers drummer Chad Smith and current Metallica bassist Robert Trujillo,&lt;/reputation&gt; her voice at the &lt;proficiency&gt;perfect grit&lt;/proficiency&gt; for the iconic ballad.</t>
+  </si>
+  <si>
+    <t>&lt;reputation&gt;Depeche Mode's Dave Gahan&lt;/reputation&gt; was born to sing it, swathed in an &lt;genre&gt;electronic miasma&lt;/genre&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;reputation&gt;Depeche Mode singer Dave Gahan&lt;/reputation&gt; (&lt;genre&gt;maximum lounge crooner&lt;/genre&gt;)</t>
+  </si>
+  <si>
+    <t>a &lt;uniqueness&gt;&lt;uniqueness&gt;staggering 12 versions&lt;/uniqueness&gt;&lt;/uniqueness&gt; of "Nothing Else Matters" by everyone from ... My Morning Jacket ... and more.</t>
+  </si>
+  <si>
+    <t>My Morning Jacket turning it into a &lt;genre&gt;lighthearted ditty&lt;/genre&gt; that's ready-made for car commercials.</t>
+  </si>
+  <si>
+    <t>But the bottom has to be My Morning Jacket, who turn "Nothing Else Matters" into a &lt;genre&gt;pop rock tune that sounds weak and lacking&lt;/genre&gt; in bite at the same time. It's the soundtrack to a bad commercial interrupting your YouTube playlist.</t>
+  </si>
+  <si>
+    <t>Kudos to My Morning Jacket and (oh yes) Roxette for banging out &lt;genre&gt;pop versions below four minutes&lt;/genre&gt;</t>
+  </si>
+  <si>
+    <t>My Morning Jacket (&lt;reputation&gt;couldn't sound more MMJ&lt;/reputation&gt;)</t>
+  </si>
+  <si>
+    <t>&lt;reputation&gt;Swedish pop pioneers Roxette&lt;/reputation&gt; (do the rest, please)</t>
+  </si>
+  <si>
+    <t>a &lt;uniqueness&gt;&lt;uniqueness&gt;staggering 12 versions&lt;/uniqueness&gt;&lt;/uniqueness&gt; of "Nothing Else Matters" by everyone from ... Darius Rucker and more.</t>
+  </si>
+  <si>
+    <t>Darius Rucker (&lt;genre&gt;frat dude country in full Nashvegas mode&lt;/genre&gt;)</t>
+  </si>
+  <si>
+    <t>Chris Stapleton's has a &lt;composition&gt;cool jam at the end&lt;/composition&gt;</t>
+  </si>
+  <si>
+    <t>&lt;reputation&gt;country legend&lt;/reputation&gt; Chris Stapleton taps into the &lt;interpretation&gt;gritty defiance of the original with a mean and dusty&lt;/interpretation&gt; eight-minute version that rises to the top of the …Blacklist heap</t>
+  </si>
+  <si>
+    <t>Chris Stapleton ... throw[s his] &lt;genre&gt;oversized cowboy [hat]&lt;/genre&gt; in the ring.</t>
   </si>
   <si>
     <t>there are few more dispiriting moments in music than when you realise ...  that country blues croaker Chris Stapleton is now going to wang on for over eight [minutes].</t>
   </si>
   <si>
-    <t>a staggering 12 versions of "Nothing Else Matters" by everyone from ... TRESOR ... and more.</t>
-  </si>
-  <si>
-    <t>The least-covered songs on The Metallica Blacklist stand out [such as] Goodnight, Texas' woodsy version of "Of Wolf and Man"</t>
-  </si>
-  <si>
-    <t>style, uniqueness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Special mention must go to Goodnight, Texas ... the only [act] to offer to cover ‘Of Wolf And Man’ </t>
-  </si>
-  <si>
-    <t>On a 53-track album, they can’t all be winners ... A group called Goodnight, Texas brings a stomp-clap-hey to “Of Wolf and Man.”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDLES pummel ‘The God That Failed’ into their wheelhouse, snarling guitars and sparse bass transforming the song into something wholly new and completely thrilling. </t>
-  </si>
-  <si>
-    <t>IDLES insert British gutter punk energy into their cover of “The God That Failed”, already one of the heaviest songs on The Black Album</t>
-  </si>
-  <si>
-    <t>IDLES deliver a sonic slap in the face with ‘The God That Failed’</t>
-  </si>
-  <si>
-    <t>IDLES turn “The God That Failed” into a bug-eyed post-punk exorcism</t>
-  </si>
-  <si>
-    <t>Cherry Glazzer covers “My Friend of Misery” as stiffish New Wave guitar rock</t>
-  </si>
-  <si>
-    <t>Kamasi Washington's spacy grooves on "My Friend Misery"</t>
-  </si>
-  <si>
-    <t>jazz virtuoso Kamasi Washington’s transcendent take on “My Friend of Misery”</t>
-  </si>
-  <si>
-    <t>Kamasi Washington pulls off the most impressive feat of the record, discovering a swirling spiritual jazz workout in the little-loved “My Friend of Misery” and enlisting vocalist Patrice Quinn to breathe new life into Hetfield’s cynical lyric.</t>
-  </si>
-  <si>
-    <t>Kamasi Washington turns it into shockingly great electric fusion with singer Patrice Quinn reworking James Hetfield’s lyrics into something for the Village Vanguard.</t>
-  </si>
-  <si>
-    <t>The least-covered songs on The Metallica Blacklist stand out [such as] Rodrigo y Gabriela's precision acoustic instrumental take on "The Struggle Within"</t>
-  </si>
-  <si>
-    <t>Rodrigo y Gabriela’s impressive flamenco transformation of “The Struggle Within"</t>
-  </si>
-  <si>
-    <t>style, technique</t>
-  </si>
-  <si>
-    <t>Special mention must go to ... Rodrigo Y Gabriela, the only [act] to offer to cover ‘Of Wolf And Man’ and ‘The Struggle Within’</t>
-  </si>
-  <si>
-    <t>Track</t>
+    <t>a &lt;uniqueness&gt;staggering 12 versions&lt;/uniqueness&gt; of "Nothing Else Matters" by everyone from ... TRESOR ... and more.</t>
+  </si>
+  <si>
+    <t>The &lt;uniqueness&gt;least-covered songs&lt;/uniqueness&gt; on The Metallica Blacklist stand out [such as] Goodnight, Texas' &lt;interpretation&gt;woodsy version&lt;/interpretation&gt; of "Of Wolf and Man"</t>
+  </si>
+  <si>
+    <t>Special mention must go to Goodnight, Texas ... &lt;uniqueness&gt;the only [act] to offer to cover 'Of Wolf And Man'&lt;/uniqueness&gt;</t>
+  </si>
+  <si>
+    <t>On a 53-track album, they can't all be winners ... A group called Goodnight, Texas brings a &lt;genre&gt;stomp-clap-hey&lt;/genre&gt; to "Of Wolf and Man."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDLES pummel 'The God That Failed' into their wheelhouse, &lt;instrumentation&gt;snarling guitars and sparse bass&lt;/instrumentation&gt; &lt;interpretation&gt;transforming the song into something wholly new and completely thrilling&lt;/interpretation&gt;. </t>
+  </si>
+  <si>
+    <t>IDLES insert British &lt;genre&gt;gutter punk energy&lt;/genre&gt; into their cover of "The God That Failed", already one of the heaviest songs on The Black Album</t>
+  </si>
+  <si>
+    <t>IDLES deliver a &lt;interpretation&gt;sonic slap in the face&lt;/interpretation&gt; with 'The God That Failed'</t>
+  </si>
+  <si>
+    <t>IDLES turn "The God That Failed" into a &lt;genre&gt;bug-eyed post-punk exorcism&lt;/genre&gt;</t>
+  </si>
+  <si>
+    <t>Cherry Glazzer covers "My Friend of Misery" as &lt;genre&gt;stiffish New Wave guitar rock&lt;/genre&gt;</t>
+  </si>
+  <si>
+    <t>Kamasi Washington's &lt;genre&gt;spacy grooves&lt;/genre&gt; on "My Friend Misery"</t>
+  </si>
+  <si>
+    <t>jazz virtuoso Kamasi Washington's &lt;interpretation&gt;transcendent take&lt;/interpretation&gt; on "My Friend of Misery"</t>
+  </si>
+  <si>
+    <t>Kamasi Washington pulls off the most impressive feat of the record, discovering a &lt;genre&gt;swirling spiritual jazz workout&lt;/genre&gt; in the &lt;uniqueness&gt;little-loved "My Friend of Misery"&lt;/uniqueness" and enlisting vocalist Patrice Quinn to &lt;interpretation&gt;breathe new life&lt;/interpretation&gt; into Hetfield's cynical lyric.</t>
+  </si>
+  <si>
+    <t>Kamasi Washington turns it into shockingly great electric fusion with singer Patrice Quinn reworking James Hetfield's lyrics into something for the Village Vanguard.</t>
+  </si>
+  <si>
+    <t>The &lt;uniqueness&gt;least-covered songs on The Metallica Blacklist stand out&lt;/uniqueness&gt; [such as] Rodrigo y Gabriela's &lt;instrumentation&gt;precision acoustic instrumental&lt;/instrumentation&gt; take on "The Struggle Within"</t>
+  </si>
+  <si>
+    <t>Rodrigo y Gabriela's &lt;genre&gt;impressive flamenco transformation&lt;/genre&gt; of "The Struggle Within"</t>
+  </si>
+  <si>
+    <t>Special mention must go to ... Rodrigo Y Gabriela, the &lt;uniqueness&gt;only [act] to offer to cover  ... 'The Struggle Within'&lt;/uniqueness&gt;</t>
   </si>
   <si>
     <t>Mentions</t>
@@ -874,7 +799,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -882,7 +807,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1334,10 +1259,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -1464,7 +1389,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1476,14 +1401,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1813,25 +1737,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H140"/>
+  <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D81" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="15.5135135135135" customWidth="1"/>
     <col min="2" max="2" width="10.6576576576577" customWidth="1"/>
     <col min="3" max="3" width="10.8828828828829" customWidth="1"/>
     <col min="4" max="4" width="40.7657657657658" style="3" customWidth="1"/>
-    <col min="5" max="5" width="114.207207207207" style="3" customWidth="1"/>
+    <col min="5" max="5" width="121.468468468468" style="3" customWidth="1"/>
     <col min="6" max="6" width="11.1171171171171" customWidth="1"/>
-    <col min="7" max="7" width="13.1981981981982" customWidth="1"/>
-    <col min="8" max="8" width="15.5135135135135" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1850,3635 +1772,2779 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+    </row>
+    <row r="2" ht="43.7" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" ht="43.7" spans="1:8">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2">
-        <f>F2*IF(LEN(TRIM(E2))=0,0,LEN(TRIM(E2))-LEN(SUBSTITUTE(E2," ",""))+1)</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" ht="29.15" spans="1:8">
+    </row>
+    <row r="3" ht="29.15" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>16</v>
-      </c>
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3">
-        <f>F3*IF(LEN(TRIM(E3))=0,0,LEN(TRIM(E3))-LEN(SUBSTITUTE(E3," ",""))+1)</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" ht="43.7" spans="1:8">
+    </row>
+    <row r="4" ht="43.7" spans="1:6">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F4">
         <v>-1</v>
       </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4">
-        <f>F4*IF(LEN(TRIM(E4))=0,0,LEN(TRIM(E4))-LEN(SUBSTITUTE(E4," ",""))+1)</f>
-        <v>-13</v>
-      </c>
-    </row>
-    <row r="5" ht="29.15" spans="1:8">
+    </row>
+    <row r="5" ht="29.15" spans="1:6">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F5">
         <v>-1</v>
       </c>
-      <c r="G5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5">
-        <f>F5*IF(LEN(TRIM(E5))=0,0,LEN(TRIM(E5))-LEN(SUBSTITUTE(E5," ",""))+1)</f>
-        <v>-13</v>
-      </c>
-    </row>
-    <row r="6" ht="43.7" spans="1:8">
+    </row>
+    <row r="6" ht="43.7" spans="1:6">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6">
-        <f t="shared" ref="H6:H11" si="0">F6*IF(LEN(TRIM(E6))=0,0,LEN(TRIM(E6))-LEN(SUBSTITUTE(E6," ",""))+1)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" ht="29.15" spans="1:8">
+    </row>
+    <row r="7" ht="29.15" spans="1:6">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" ht="43.7" spans="1:8">
+    </row>
+    <row r="8" ht="43.7" spans="1:6">
       <c r="A8">
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F8">
         <v>-1</v>
       </c>
-      <c r="G8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
-        <v>-13</v>
-      </c>
-    </row>
-    <row r="9" ht="29.15" spans="1:8">
+    </row>
+    <row r="9" ht="29.15" spans="1:6">
       <c r="A9">
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F9">
         <v>-1</v>
       </c>
-      <c r="G9" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
-        <v>-12</v>
-      </c>
-    </row>
-    <row r="10" ht="43.7" spans="1:8">
+    </row>
+    <row r="10" ht="43.7" spans="1:6">
       <c r="A10">
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="G10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" ht="43.7" spans="1:8">
+    </row>
+    <row r="11" customFormat="1" ht="43.7" spans="1:6">
       <c r="A11">
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F11">
         <v>-1</v>
       </c>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="0"/>
-        <v>-13</v>
-      </c>
-    </row>
-    <row r="12" ht="29.15" spans="1:8">
+    </row>
+    <row r="12" ht="29.15" spans="1:6">
       <c r="A12">
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="F12">
         <v>1</v>
       </c>
-      <c r="G12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12">
-        <f t="shared" ref="H12:H66" si="1">F12*IF(LEN(TRIM(E12))=0,0,LEN(TRIM(E12))-LEN(SUBSTITUTE(E12," ",""))+1)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" ht="29.15" spans="1:8">
+    </row>
+    <row r="13" ht="29.15" spans="1:6">
       <c r="A13">
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F13">
         <v>-1</v>
       </c>
-      <c r="G13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="1"/>
-        <v>-13</v>
-      </c>
-    </row>
-    <row r="14" ht="43.7" spans="1:8">
+    </row>
+    <row r="14" ht="43.7" spans="1:6">
       <c r="A14">
         <v>5</v>
       </c>
       <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>10</v>
-      </c>
       <c r="E14" s="3" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
-      <c r="G14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" ht="29.15" spans="1:8">
+    </row>
+    <row r="15" ht="29.15" spans="1:6">
       <c r="A15">
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>48</v>
+        <v>38</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
-      <c r="G15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" ht="29.15" spans="1:8">
+    </row>
+    <row r="16" ht="29.15" spans="1:6">
       <c r="A16">
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
-      <c r="G16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" ht="43.7" spans="1:8">
+    </row>
+    <row r="17" ht="43.7" spans="1:6">
       <c r="A17">
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
-      <c r="G17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" ht="29.15" spans="1:8">
+    </row>
+    <row r="18" ht="29.15" spans="1:6">
       <c r="A18">
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>54</v>
+        <v>44</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
-      <c r="G18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" ht="29.15" spans="1:8">
+    </row>
+    <row r="19" ht="29.15" spans="1:6">
       <c r="A19">
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="F19">
         <v>-1</v>
       </c>
-      <c r="G19" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="1"/>
-        <v>-26</v>
-      </c>
-    </row>
-    <row r="20" ht="43.7" spans="1:8">
+    </row>
+    <row r="20" ht="43.7" spans="1:6">
       <c r="A20">
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
-      <c r="G20" t="s">
-        <v>58</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" ht="29.15" spans="1:8">
+    </row>
+    <row r="21" ht="29.15" spans="1:6">
       <c r="A21">
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
-      <c r="G21" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" ht="43.7" spans="1:8">
+    </row>
+    <row r="22" ht="43.7" spans="1:6">
       <c r="A22">
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>60</v>
+        <v>15</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
-      <c r="G22" t="s">
-        <v>36</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" ht="29.15" spans="1:8">
+    </row>
+    <row r="23" ht="29.15" spans="1:6">
       <c r="A23">
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>54</v>
+        <v>44</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F23">
         <v>-1</v>
       </c>
-      <c r="G23" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="1"/>
-        <v>-33</v>
-      </c>
-    </row>
-    <row r="24" ht="29.15" spans="1:8">
+    </row>
+    <row r="24" ht="29.15" spans="1:6">
       <c r="A24">
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
-      <c r="G24" t="s">
-        <v>58</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" ht="43.7" spans="1:8">
+    </row>
+    <row r="25" ht="43.7" spans="1:6">
       <c r="A25">
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F25">
         <v>-1</v>
       </c>
-      <c r="G25" t="s">
-        <v>36</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="1"/>
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="26" ht="43.7" spans="1:8">
+    </row>
+    <row r="26" ht="43.7" spans="1:6">
       <c r="A26">
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
-      <c r="G26" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" ht="29.15" spans="1:8">
+    </row>
+    <row r="27" ht="29.15" spans="1:6">
       <c r="A27">
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
-      <c r="G27" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" ht="43.7" spans="1:8">
+    </row>
+    <row r="28" ht="43.7" spans="1:6">
       <c r="A28">
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
-      <c r="G28" t="s">
-        <v>17</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" ht="29.15" spans="1:8">
+    </row>
+    <row r="29" ht="29.15" spans="1:6">
       <c r="A29">
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C29" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
-      <c r="G29" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" ht="43.7" spans="1:8">
+    </row>
+    <row r="30" ht="43.7" spans="1:6">
       <c r="A30">
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
-      <c r="G30" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" ht="29.15" spans="1:8">
+    </row>
+    <row r="31" ht="29.15" spans="1:5">
       <c r="A31">
         <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>48</v>
+        <v>38</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G31" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" ht="43.7" spans="1:8">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" ht="43.7" spans="1:6">
       <c r="A32">
         <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
-      <c r="G32" t="s">
-        <v>58</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" ht="29.15" spans="1:8">
+    </row>
+    <row r="33" ht="29.15" spans="1:6">
       <c r="A33">
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
-      <c r="G33" t="s">
-        <v>72</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" ht="43.7" spans="1:8">
+    </row>
+    <row r="34" ht="43.7" spans="1:6">
       <c r="A34">
         <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
-      <c r="G34" t="s">
-        <v>40</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" ht="29.15" spans="1:8">
+    </row>
+    <row r="35" ht="29.15" spans="1:6">
       <c r="A35">
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C35" t="s">
-        <v>75</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>76</v>
+        <v>64</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" ht="43.7" spans="1:8">
+    </row>
+    <row r="36" ht="43.7" spans="1:6">
       <c r="A36">
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
-      <c r="G36" t="s">
-        <v>17</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" ht="29.15" spans="1:8">
+    </row>
+    <row r="37" ht="29.15" spans="1:6">
       <c r="A37">
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C37" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="F37">
         <v>-1</v>
       </c>
-      <c r="G37" t="s">
-        <v>17</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="1"/>
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="38" ht="43.7" spans="1:8">
+    </row>
+    <row r="38" ht="43.7" spans="1:6">
       <c r="A38">
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C38" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F38">
         <v>1</v>
       </c>
-      <c r="G38" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" ht="29.15" spans="1:8">
+    </row>
+    <row r="39" ht="29.15" spans="1:6">
       <c r="A39">
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C39" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="F39">
         <v>1</v>
       </c>
-      <c r="G39" t="s">
-        <v>17</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" ht="29.15" spans="1:8">
+    </row>
+    <row r="40" ht="29.15" spans="1:6">
       <c r="A40">
         <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C40" t="s">
-        <v>75</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>76</v>
+        <v>64</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="F40">
         <v>1</v>
       </c>
-      <c r="G40" t="s">
-        <v>40</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" ht="29.15" spans="1:8">
+    </row>
+    <row r="41" ht="29.15" spans="1:6">
       <c r="A41">
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>47</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>48</v>
+        <v>38</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="F41">
         <v>1</v>
       </c>
-      <c r="G41" t="s">
-        <v>40</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" ht="29.15" spans="1:8">
+    </row>
+    <row r="42" ht="29.15" spans="1:6">
       <c r="A42">
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="F42">
         <v>1</v>
       </c>
-      <c r="G42" t="s">
-        <v>27</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" ht="43.7" spans="1:8">
+    </row>
+    <row r="43" ht="43.7" spans="1:6">
       <c r="A43">
         <v>14</v>
       </c>
       <c r="B43" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="F43">
         <v>1</v>
       </c>
-      <c r="G43" t="s">
-        <v>86</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" ht="43.7" spans="1:8">
+    </row>
+    <row r="44" ht="43.7" spans="1:6">
       <c r="A44">
         <v>14</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C44" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F44">
         <v>1</v>
       </c>
-      <c r="G44" t="s">
-        <v>88</v>
-      </c>
-      <c r="H44">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" ht="29.15" spans="1:8">
+    </row>
+    <row r="45" ht="29.15" spans="1:6">
       <c r="A45">
         <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="F45">
         <v>1</v>
       </c>
-      <c r="G45" t="s">
-        <v>17</v>
-      </c>
-      <c r="H45">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="46" ht="43.7" spans="1:8">
+    </row>
+    <row r="46" ht="43.7" spans="1:6">
       <c r="A46">
         <v>15</v>
       </c>
       <c r="B46" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C46" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="F46">
         <v>1</v>
       </c>
-      <c r="G46" t="s">
-        <v>17</v>
-      </c>
-      <c r="H46">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" ht="43.7" spans="1:8">
+    </row>
+    <row r="47" ht="43.7" spans="1:6">
       <c r="A47">
         <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C47" t="s">
-        <v>29</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="F47">
         <v>1</v>
       </c>
-      <c r="G47" t="s">
-        <v>17</v>
-      </c>
-      <c r="H47">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="48" ht="29.15" spans="1:8">
+    </row>
+    <row r="48" ht="29.15" spans="1:6">
       <c r="A48">
         <v>16</v>
       </c>
       <c r="B48" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C48" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="F48">
         <v>1</v>
       </c>
-      <c r="G48" t="s">
-        <v>27</v>
-      </c>
-      <c r="H48">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" ht="43.7" spans="1:8">
+    </row>
+    <row r="49" ht="43.7" spans="1:6">
       <c r="A49">
         <v>16</v>
       </c>
       <c r="B49" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C49" t="s">
-        <v>19</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="F49">
         <v>1</v>
       </c>
-      <c r="G49" t="s">
-        <v>17</v>
-      </c>
-      <c r="H49">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" ht="29.15" spans="1:8">
+    </row>
+    <row r="50" ht="29.15" spans="1:6">
       <c r="A50">
         <v>17</v>
       </c>
       <c r="B50" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C50" t="s">
-        <v>47</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>48</v>
+        <v>38</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="F50">
         <v>1</v>
       </c>
-      <c r="G50" t="s">
-        <v>17</v>
-      </c>
-      <c r="H50">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" ht="29.15" spans="1:8">
+    </row>
+    <row r="51" ht="29.15" spans="1:6">
       <c r="A51">
         <v>17</v>
       </c>
       <c r="B51" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C51" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="F51">
         <v>1</v>
       </c>
-      <c r="G51" t="s">
-        <v>27</v>
-      </c>
-      <c r="H51">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" ht="43.7" spans="1:8">
+    </row>
+    <row r="52" ht="43.7" spans="1:6">
       <c r="A52">
         <v>17</v>
       </c>
       <c r="B52" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C52" t="s">
-        <v>19</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="F52">
         <v>1</v>
       </c>
-      <c r="G52" t="s">
-        <v>17</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" ht="43.7" spans="1:8">
+    </row>
+    <row r="53" ht="43.7" spans="1:6">
       <c r="A53">
         <v>18</v>
       </c>
       <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C53" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>10</v>
-      </c>
       <c r="E53" s="3" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="F53">
         <v>1</v>
       </c>
-      <c r="G53" t="s">
-        <v>98</v>
-      </c>
-      <c r="H53">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="54" ht="29.15" spans="1:8">
+    </row>
+    <row r="54" ht="29.15" spans="1:6">
       <c r="A54">
         <v>18</v>
       </c>
       <c r="B54" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C54" t="s">
-        <v>47</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>48</v>
+        <v>38</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="F54">
         <v>1</v>
       </c>
-      <c r="G54" t="s">
-        <v>100</v>
-      </c>
-      <c r="H54">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="55" customFormat="1" ht="29.15" spans="1:8">
+    </row>
+    <row r="55" customFormat="1" ht="29.15" spans="1:6">
       <c r="A55">
         <v>18</v>
       </c>
       <c r="B55" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C55" t="s">
-        <v>47</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>48</v>
+        <v>38</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="F55">
         <v>-1</v>
       </c>
-      <c r="G55" t="s">
-        <v>27</v>
-      </c>
-      <c r="H55">
-        <f t="shared" si="1"/>
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="56" ht="43.7" spans="1:8">
+    </row>
+    <row r="56" ht="43.7" spans="1:6">
       <c r="A56">
         <v>18</v>
       </c>
       <c r="B56" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="F56">
         <v>1</v>
       </c>
-      <c r="G56" t="s">
-        <v>58</v>
-      </c>
-      <c r="H56">
-        <f>F56*IF(LEN(TRIM(E56))=0,0,LEN(TRIM(E56))-LEN(SUBSTITUTE(E56," ",""))+1)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="57" ht="29.15" spans="1:8">
+    </row>
+    <row r="57" ht="29.15" spans="1:6">
       <c r="A57">
         <v>18</v>
       </c>
       <c r="B57" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C57" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="F57">
         <v>1</v>
       </c>
-      <c r="G57" t="s">
-        <v>58</v>
-      </c>
-      <c r="H57">
-        <f>F57*IF(LEN(TRIM(E57))=0,0,LEN(TRIM(E57))-LEN(SUBSTITUTE(E57," ",""))+1)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" ht="43.7" spans="1:8">
+    </row>
+    <row r="58" ht="43.7" spans="1:6">
       <c r="A58">
         <v>18</v>
       </c>
       <c r="B58" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C58" t="s">
-        <v>19</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="F58">
         <v>1</v>
       </c>
-      <c r="G58" t="s">
-        <v>58</v>
-      </c>
-      <c r="H58">
-        <f>F58*IF(LEN(TRIM(E58))=0,0,LEN(TRIM(E58))-LEN(SUBSTITUTE(E58," ",""))+1)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="59" ht="29.15" spans="1:8">
+    </row>
+    <row r="59" ht="29.15" spans="1:6">
       <c r="A59">
         <v>18</v>
       </c>
       <c r="B59" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C59" t="s">
-        <v>53</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>54</v>
+        <v>44</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="F59">
         <v>-1</v>
       </c>
-      <c r="G59" t="s">
-        <v>40</v>
-      </c>
-      <c r="H59">
-        <f>F59*IF(LEN(TRIM(E59))=0,0,LEN(TRIM(E59))-LEN(SUBSTITUTE(E59," ",""))+1)</f>
-        <v>-16</v>
-      </c>
-    </row>
-    <row r="60" ht="43.7" spans="1:8">
+    </row>
+    <row r="60" ht="43.7" spans="1:6">
       <c r="A60">
         <v>19</v>
       </c>
       <c r="B60" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>19</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="F60">
         <v>1</v>
       </c>
-      <c r="G60" t="s">
-        <v>107</v>
-      </c>
-      <c r="H60">
-        <f>F60*IF(LEN(TRIM(E60))=0,0,LEN(TRIM(E60))-LEN(SUBSTITUTE(E60," ",""))+1)</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="61" ht="29.15" spans="1:8">
+    </row>
+    <row r="61" ht="29.15" spans="1:6">
       <c r="A61">
         <v>20</v>
       </c>
       <c r="B61" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C61" t="s">
-        <v>47</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>48</v>
+        <v>38</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="F61">
         <v>1</v>
       </c>
-      <c r="G61" t="s">
-        <v>17</v>
-      </c>
-      <c r="H61">
-        <f>F61*IF(LEN(TRIM(E61))=0,0,LEN(TRIM(E61))-LEN(SUBSTITUTE(E61," ",""))+1)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" ht="29.15" spans="1:8">
+    </row>
+    <row r="62" ht="29.15" spans="1:6">
       <c r="A62">
         <v>20</v>
       </c>
       <c r="B62" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C62" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F62">
         <v>-1</v>
       </c>
-      <c r="G62" t="s">
-        <v>36</v>
-      </c>
-      <c r="H62">
-        <f>F62*IF(LEN(TRIM(E62))=0,0,LEN(TRIM(E62))-LEN(SUBSTITUTE(E62," ",""))+1)</f>
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="63" ht="43.7" spans="1:8">
+    </row>
+    <row r="63" ht="43.7" spans="1:6">
       <c r="A63">
         <v>20</v>
       </c>
       <c r="B63" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C63" t="s">
-        <v>19</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="F63">
         <v>-1</v>
       </c>
-      <c r="G63" t="s">
-        <v>111</v>
-      </c>
-      <c r="H63">
-        <f>F63*IF(LEN(TRIM(E63))=0,0,LEN(TRIM(E63))-LEN(SUBSTITUTE(E63," ",""))+1)</f>
-        <v>-22</v>
-      </c>
-    </row>
-    <row r="64" ht="29.15" spans="1:8">
+    </row>
+    <row r="64" ht="29.15" spans="1:6">
       <c r="A64">
         <v>21</v>
       </c>
       <c r="B64" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C64" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="F64">
         <v>-1</v>
       </c>
-      <c r="G64" t="s">
-        <v>36</v>
-      </c>
-      <c r="H64">
-        <f>F64*IF(LEN(TRIM(E64))=0,0,LEN(TRIM(E64))-LEN(SUBSTITUTE(E64," ",""))+1)</f>
-        <v>-22</v>
-      </c>
-    </row>
-    <row r="65" ht="43.7" spans="1:8">
+    </row>
+    <row r="65" ht="43.7" spans="1:6">
       <c r="A65">
         <v>21</v>
       </c>
       <c r="B65" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C65" t="s">
-        <v>19</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="F65">
         <v>-1</v>
       </c>
-      <c r="G65" t="s">
-        <v>111</v>
-      </c>
-      <c r="H65">
-        <f>F65*IF(LEN(TRIM(E65))=0,0,LEN(TRIM(E65))-LEN(SUBSTITUTE(E65," ",""))+1)</f>
-        <v>-21</v>
-      </c>
-    </row>
-    <row r="66" ht="29.15" spans="1:8">
+    </row>
+    <row r="66" ht="29.15" spans="1:6">
       <c r="A66">
         <v>22</v>
       </c>
       <c r="B66" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C66" t="s">
-        <v>47</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>48</v>
+        <v>38</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="F66">
         <v>1</v>
       </c>
-      <c r="G66" t="s">
-        <v>100</v>
-      </c>
-      <c r="H66">
-        <f>F66*IF(LEN(TRIM(E66))=0,0,LEN(TRIM(E66))-LEN(SUBSTITUTE(E66," ",""))+1)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" ht="43.7" spans="1:8">
+    </row>
+    <row r="67" ht="43.7" spans="1:6">
       <c r="A67">
         <v>22</v>
       </c>
       <c r="B67" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C67" t="s">
-        <v>19</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="F67">
         <v>1</v>
       </c>
-      <c r="G67" t="s">
-        <v>17</v>
-      </c>
-      <c r="H67">
-        <f>F67*IF(LEN(TRIM(E67))=0,0,LEN(TRIM(E67))-LEN(SUBSTITUTE(E67," ",""))+1)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" ht="29.15" spans="1:8">
+    </row>
+    <row r="68" ht="29.15" spans="1:6">
       <c r="A68">
         <v>22</v>
       </c>
       <c r="B68" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C68" t="s">
-        <v>53</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>54</v>
+        <v>44</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="F68">
         <v>1</v>
       </c>
-      <c r="G68" t="s">
-        <v>117</v>
-      </c>
-      <c r="H68">
-        <f>F68*IF(LEN(TRIM(E68))=0,0,LEN(TRIM(E68))-LEN(SUBSTITUTE(E68," ",""))+1)</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="69" ht="43.7" spans="1:8">
+    </row>
+    <row r="69" ht="43.7" spans="1:6">
       <c r="A69">
         <v>23</v>
       </c>
       <c r="B69" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C69" t="s">
-        <v>29</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="F69">
         <v>1</v>
       </c>
-      <c r="G69" t="s">
-        <v>36</v>
-      </c>
-      <c r="H69">
-        <f>F69*IF(LEN(TRIM(E69))=0,0,LEN(TRIM(E69))-LEN(SUBSTITUTE(E69," ",""))+1)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="70" ht="43.7" spans="1:8">
+    </row>
+    <row r="70" ht="43.7" spans="1:6">
       <c r="A70">
         <v>23</v>
       </c>
       <c r="B70" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C70" t="s">
-        <v>19</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="F70">
         <v>-1</v>
       </c>
-      <c r="G70" t="s">
-        <v>17</v>
-      </c>
-      <c r="H70">
-        <f>F70*IF(LEN(TRIM(E70))=0,0,LEN(TRIM(E70))-LEN(SUBSTITUTE(E70," ",""))+1)</f>
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="71" ht="29.15" spans="1:8">
+    </row>
+    <row r="71" ht="29.15" spans="1:6">
       <c r="A71">
         <v>25</v>
       </c>
       <c r="B71" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C71" t="s">
-        <v>14</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="F71">
         <v>1</v>
       </c>
-      <c r="G71" t="s">
-        <v>36</v>
-      </c>
-      <c r="H71">
-        <f>F71*IF(LEN(TRIM(E71))=0,0,LEN(TRIM(E71))-LEN(SUBSTITUTE(E71," ",""))+1)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="72" ht="29.15" spans="1:8">
+    </row>
+    <row r="72" ht="29.15" spans="1:6">
       <c r="A72">
         <v>25</v>
       </c>
       <c r="B72" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C72" t="s">
-        <v>47</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>48</v>
+        <v>38</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="F72">
         <v>1</v>
       </c>
-      <c r="G72" t="s">
-        <v>36</v>
-      </c>
-      <c r="H72">
-        <f>F72*IF(LEN(TRIM(E72))=0,0,LEN(TRIM(E72))-LEN(SUBSTITUTE(E72," ",""))+1)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" ht="43.7" spans="1:8">
+    </row>
+    <row r="73" ht="43.7" spans="1:6">
       <c r="A73">
         <v>25</v>
       </c>
       <c r="B73" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C73" t="s">
-        <v>19</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="F73">
         <v>-1</v>
       </c>
-      <c r="G73" t="s">
-        <v>111</v>
-      </c>
-      <c r="H73">
-        <f>F73*IF(LEN(TRIM(E73))=0,0,LEN(TRIM(E73))-LEN(SUBSTITUTE(E73," ",""))+1)</f>
-        <v>-22</v>
-      </c>
-    </row>
-    <row r="74" ht="29.15" spans="1:8">
+    </row>
+    <row r="74" ht="29.15" spans="1:6">
       <c r="A74">
         <v>25</v>
       </c>
       <c r="B74" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C74" t="s">
-        <v>53</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>54</v>
+        <v>44</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="F74">
         <v>1</v>
       </c>
-      <c r="G74" t="s">
-        <v>36</v>
-      </c>
-      <c r="H74">
-        <f>F74*IF(LEN(TRIM(E74))=0,0,LEN(TRIM(E74))-LEN(SUBSTITUTE(E74," ",""))+1)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="75" ht="29.15" spans="1:8">
+    </row>
+    <row r="75" ht="29.15" spans="1:6">
       <c r="A75">
         <v>26</v>
       </c>
       <c r="B75" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C75" t="s">
-        <v>47</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>48</v>
+        <v>38</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="F75">
         <v>1</v>
       </c>
-      <c r="G75" t="s">
-        <v>17</v>
-      </c>
-      <c r="H75">
-        <f>F75*IF(LEN(TRIM(E75))=0,0,LEN(TRIM(E75))-LEN(SUBSTITUTE(E75," ",""))+1)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="76" ht="29.15" spans="1:8">
+    </row>
+    <row r="76" ht="29.15" spans="1:6">
       <c r="A76">
         <v>26</v>
       </c>
       <c r="B76" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C76" t="s">
-        <v>47</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>48</v>
+        <v>38</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="F76">
         <v>1</v>
       </c>
-      <c r="G76" t="s">
-        <v>126</v>
-      </c>
-      <c r="H76">
-        <f t="shared" ref="H76:H81" si="2">F76*IF(LEN(TRIM(E76))=0,0,LEN(TRIM(E76))-LEN(SUBSTITUTE(E76," ",""))+1)</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="77" ht="29.15" spans="1:8">
+    </row>
+    <row r="77" ht="29.15" spans="1:6">
       <c r="A77">
         <v>26</v>
       </c>
       <c r="B77" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C77" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F77">
         <v>1</v>
       </c>
-      <c r="G77" t="s">
-        <v>36</v>
-      </c>
-      <c r="H77">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="78" ht="43.7" spans="1:8">
+    </row>
+    <row r="78" ht="43.7" spans="1:6">
       <c r="A78">
         <v>26</v>
       </c>
       <c r="B78" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C78" t="s">
-        <v>19</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="F78">
         <v>1</v>
       </c>
-      <c r="G78" t="s">
-        <v>17</v>
-      </c>
-      <c r="H78">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="79" ht="29.15" spans="1:8">
+    </row>
+    <row r="79" ht="29.15" spans="1:6">
       <c r="A79">
         <v>26</v>
       </c>
       <c r="B79" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C79" t="s">
-        <v>53</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>54</v>
+        <v>44</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="F79">
         <v>-1</v>
       </c>
-      <c r="G79" t="s">
-        <v>130</v>
-      </c>
-      <c r="H79">
-        <f t="shared" si="2"/>
-        <v>-24</v>
-      </c>
-    </row>
-    <row r="80" ht="43.7" spans="1:8">
+    </row>
+    <row r="80" ht="43.7" spans="1:6">
       <c r="A80">
         <v>27</v>
       </c>
       <c r="B80" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C80" t="s">
-        <v>29</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="F80">
         <v>1</v>
       </c>
-      <c r="G80" t="s">
-        <v>17</v>
-      </c>
-      <c r="H80">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="81" customFormat="1" ht="43.7" spans="1:8">
+    </row>
+    <row r="81" customFormat="1" ht="43.7" spans="1:6">
       <c r="A81">
         <v>27</v>
       </c>
       <c r="B81" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C81" t="s">
-        <v>29</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="F81">
         <v>-1</v>
       </c>
-      <c r="G81" t="s">
-        <v>100</v>
-      </c>
-      <c r="H81">
-        <f t="shared" si="2"/>
-        <v>-24</v>
-      </c>
-    </row>
-    <row r="82" ht="43.7" spans="1:8">
+    </row>
+    <row r="82" ht="43.7" spans="1:6">
       <c r="A82">
         <v>27</v>
       </c>
       <c r="B82" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C82" t="s">
-        <v>19</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="F82">
         <v>1</v>
       </c>
-      <c r="G82" t="s">
-        <v>17</v>
-      </c>
-      <c r="H82">
-        <f t="shared" ref="H82:H132" si="3">F82*IF(LEN(TRIM(E82))=0,0,LEN(TRIM(E82))-LEN(SUBSTITUTE(E82," ",""))+1)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="83" ht="43.7" spans="1:8">
+    </row>
+    <row r="83" ht="43.7" spans="1:6">
       <c r="A83">
         <v>28</v>
       </c>
       <c r="B83" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C83" t="s">
-        <v>19</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="F83">
         <v>1</v>
       </c>
-      <c r="G83" t="s">
-        <v>17</v>
-      </c>
-      <c r="H83">
-        <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="84" ht="29.15" spans="1:8">
+    </row>
+    <row r="84" ht="29.15" spans="1:6">
       <c r="A84">
         <v>29</v>
       </c>
       <c r="B84" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C84" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="F84">
         <v>1</v>
       </c>
-      <c r="G84" t="s">
-        <v>58</v>
-      </c>
-      <c r="H84">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="85" ht="43.7" spans="1:8">
+    </row>
+    <row r="85" ht="43.7" spans="1:6">
       <c r="A85">
         <v>30</v>
       </c>
       <c r="B85" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C85" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>10</v>
-      </c>
       <c r="E85" s="3" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="F85">
         <v>1</v>
       </c>
-      <c r="G85" t="s">
-        <v>17</v>
-      </c>
-      <c r="H85">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="86" ht="29.15" spans="1:8">
+    </row>
+    <row r="86" ht="29.15" spans="1:6">
       <c r="A86">
         <v>30</v>
       </c>
       <c r="B86" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C86" t="s">
-        <v>47</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>48</v>
+        <v>38</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="F86">
         <v>1</v>
       </c>
-      <c r="G86" t="s">
-        <v>138</v>
-      </c>
-      <c r="H86">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="87" customFormat="1" ht="43.7" spans="1:8">
+    </row>
+    <row r="87" customFormat="1" ht="43.7" spans="1:6">
       <c r="A87">
         <v>30</v>
       </c>
       <c r="B87" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C87" t="s">
-        <v>19</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="F87">
         <v>1</v>
       </c>
-      <c r="G87" t="s">
-        <v>138</v>
-      </c>
-      <c r="H87">
-        <f t="shared" si="3"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="88" ht="43.7" spans="1:8">
+    </row>
+    <row r="88" ht="43.7" spans="1:6">
       <c r="A88">
         <v>31</v>
       </c>
       <c r="B88" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C88" t="s">
-        <v>19</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="F88">
         <v>1</v>
       </c>
-      <c r="G88" t="s">
-        <v>36</v>
-      </c>
-      <c r="H88">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="89" ht="29.15" spans="1:8">
+    </row>
+    <row r="89" ht="29.15" spans="1:5">
       <c r="A89">
         <v>32</v>
       </c>
       <c r="B89" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C89" t="s">
-        <v>47</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>48</v>
+        <v>38</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="G89" t="s">
-        <v>40</v>
-      </c>
-      <c r="H89">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" ht="29.15" spans="1:8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="90" ht="29.15" spans="1:6">
       <c r="A90">
         <v>32</v>
       </c>
       <c r="B90" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C90" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="F90">
         <v>1</v>
       </c>
-      <c r="G90" t="s">
-        <v>40</v>
-      </c>
-      <c r="H90">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="91" ht="43.7" spans="1:8">
+    </row>
+    <row r="91" ht="43.7" spans="1:6">
       <c r="A91">
         <v>33</v>
       </c>
       <c r="B91" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C91" t="s">
-        <v>29</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="F91">
         <v>1</v>
       </c>
-      <c r="H91">
-        <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="92" ht="29.15" spans="1:8">
+    </row>
+    <row r="92" ht="29.15" spans="1:6">
       <c r="A92">
         <v>33</v>
       </c>
       <c r="B92" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C92" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="F92">
         <v>1</v>
       </c>
-      <c r="H92">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="93" ht="29.15" spans="1:8">
+    </row>
+    <row r="93" ht="29.15" spans="1:6">
       <c r="A93">
         <v>34</v>
       </c>
       <c r="B93" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C93" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="F93">
         <v>1</v>
       </c>
-      <c r="H93">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="94" ht="29.15" spans="1:8">
+    </row>
+    <row r="94" ht="29.15" spans="1:6">
       <c r="A94">
         <v>35</v>
       </c>
       <c r="B94" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C94" t="s">
-        <v>75</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>76</v>
+        <v>64</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="F94">
         <v>1</v>
       </c>
-      <c r="G94" t="s">
-        <v>147</v>
-      </c>
-      <c r="H94">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" ht="29.15" spans="1:8">
+    </row>
+    <row r="95" ht="29.15" spans="1:6">
       <c r="A95">
         <v>35</v>
       </c>
       <c r="B95" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C95" t="s">
-        <v>14</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="F95">
         <v>1</v>
       </c>
-      <c r="G95" t="s">
-        <v>147</v>
-      </c>
-      <c r="H95">
-        <f t="shared" si="3"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="96" ht="43.7" spans="1:8">
+    </row>
+    <row r="96" ht="43.7" spans="1:6">
       <c r="A96">
         <v>35</v>
       </c>
       <c r="B96" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C96" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>10</v>
-      </c>
       <c r="E96" s="3" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="F96">
         <v>1</v>
       </c>
-      <c r="H96">
-        <f t="shared" si="3"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="97" ht="29.15" spans="1:8">
+    </row>
+    <row r="97" ht="29.15" spans="1:6">
       <c r="A97">
         <v>35</v>
       </c>
       <c r="B97" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C97" t="s">
-        <v>47</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>48</v>
+        <v>38</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="F97">
         <v>1</v>
       </c>
-      <c r="H97">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="98" ht="29.15" spans="1:8">
+    </row>
+    <row r="98" ht="29.15" spans="1:6">
       <c r="A98">
         <v>35</v>
       </c>
       <c r="B98" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C98" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="F98">
         <v>1</v>
       </c>
-      <c r="H98">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="99" ht="43.7" spans="1:8">
+    </row>
+    <row r="99" ht="43.7" spans="1:6">
       <c r="A99">
         <v>35</v>
       </c>
       <c r="B99" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C99" t="s">
-        <v>19</v>
-      </c>
-      <c r="D99" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="F99">
         <v>1</v>
       </c>
-      <c r="H99">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="100" ht="29.15" spans="1:8">
+    </row>
+    <row r="100" ht="29.15" spans="1:6">
       <c r="A100">
         <v>35</v>
       </c>
       <c r="B100" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C100" t="s">
-        <v>53</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>54</v>
+        <v>44</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="F100">
         <v>1</v>
       </c>
-      <c r="H100">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="101" ht="29.15" spans="1:8">
+    </row>
+    <row r="101" ht="29.15" spans="1:6">
       <c r="A101">
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C101" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="F101">
         <v>1</v>
       </c>
-      <c r="H101">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" ht="29.15" spans="1:8">
+    </row>
+    <row r="102" ht="29.15" spans="1:6">
       <c r="A102">
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C102" t="s">
-        <v>75</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E102" s="8" t="s">
-        <v>155</v>
+        <v>64</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>133</v>
       </c>
       <c r="F102">
         <v>1</v>
       </c>
-      <c r="H102">
-        <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="103" ht="29.15" spans="1:8">
+    </row>
+    <row r="103" ht="29.15" spans="1:6">
       <c r="A103">
         <v>36</v>
       </c>
       <c r="B103" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C103" t="s">
-        <v>14</v>
-      </c>
-      <c r="D103" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="F103">
         <v>1</v>
       </c>
-      <c r="G103" t="s">
-        <v>58</v>
-      </c>
-      <c r="H103">
-        <f t="shared" si="3"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="104" ht="43.7" spans="1:8">
+    </row>
+    <row r="104" ht="43.7" spans="1:6">
       <c r="A104">
         <v>36</v>
       </c>
       <c r="B104" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C104" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>10</v>
-      </c>
       <c r="E104" s="3" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="F104">
         <v>1</v>
       </c>
-      <c r="G104" t="s">
-        <v>58</v>
-      </c>
-      <c r="H104">
-        <f t="shared" si="3"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="105" ht="29.15" spans="1:8">
+    </row>
+    <row r="105" ht="29.15" spans="1:6">
       <c r="A105">
         <v>36</v>
       </c>
       <c r="B105" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C105" t="s">
-        <v>47</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>48</v>
+        <v>38</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="F105">
         <v>1</v>
       </c>
-      <c r="H105">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="106" ht="43.7" spans="1:8">
+    </row>
+    <row r="106" ht="43.7" spans="1:6">
       <c r="A106">
         <v>36</v>
       </c>
       <c r="B106" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C106" t="s">
-        <v>29</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="F106">
         <v>1</v>
       </c>
-      <c r="H106">
-        <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="107" ht="72.85" spans="1:8">
+    </row>
+    <row r="107" ht="72.85" spans="1:6">
       <c r="A107">
         <v>36</v>
       </c>
       <c r="B107" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C107" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="F107">
         <v>1</v>
       </c>
-      <c r="H107">
-        <f t="shared" si="3"/>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="108" ht="43.7" spans="1:8">
+    </row>
+    <row r="108" ht="43.7" spans="1:6">
       <c r="A108">
         <v>36</v>
       </c>
       <c r="B108" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C108" t="s">
-        <v>19</v>
-      </c>
-      <c r="D108" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="F108">
         <v>-1</v>
       </c>
-      <c r="H108">
-        <f t="shared" si="3"/>
-        <v>-22</v>
-      </c>
-    </row>
-    <row r="109" ht="29.15" spans="1:8">
+    </row>
+    <row r="109" ht="29.15" spans="1:6">
       <c r="A109">
         <v>36</v>
       </c>
       <c r="B109" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C109" t="s">
-        <v>53</v>
-      </c>
-      <c r="D109" s="6" t="s">
-        <v>54</v>
+        <v>44</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="F109">
         <v>1</v>
       </c>
-      <c r="H109">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="110" ht="43.7" spans="1:8">
+    </row>
+    <row r="110" ht="43.7" spans="1:6">
       <c r="A110">
         <v>36</v>
       </c>
       <c r="B110" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C110" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="F110">
         <v>1</v>
       </c>
-      <c r="H110">
-        <f t="shared" si="3"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="111" ht="43.7" spans="1:8">
+    </row>
+    <row r="111" ht="43.7" spans="1:6">
       <c r="A111">
         <v>37</v>
       </c>
       <c r="B111" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C111" t="s">
-        <v>19</v>
-      </c>
-      <c r="D111" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="F111">
         <v>1</v>
       </c>
-      <c r="H111">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="112" ht="29.15" spans="1:8">
+    </row>
+    <row r="112" ht="29.15" spans="1:6">
       <c r="A112">
         <v>37</v>
       </c>
       <c r="B112" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C112" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="F112">
         <v>1</v>
       </c>
-      <c r="H112">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="113" ht="29.15" spans="1:8">
+    </row>
+    <row r="113" ht="29.15" spans="1:6">
       <c r="A113">
         <v>42</v>
       </c>
       <c r="B113" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C113" t="s">
-        <v>75</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E113" s="8" t="s">
-        <v>166</v>
+        <v>64</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="F113">
         <v>1</v>
       </c>
-      <c r="H113">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="114" ht="29.15" spans="1:8">
+    </row>
+    <row r="114" ht="29.15" spans="1:6">
       <c r="A114">
         <v>42</v>
       </c>
       <c r="B114" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C114" t="s">
-        <v>47</v>
-      </c>
-      <c r="D114" s="6" t="s">
-        <v>48</v>
+        <v>38</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="F114">
-        <v>1</v>
-      </c>
-      <c r="H114">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="115" ht="29.15" spans="1:8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="115" ht="29.15" spans="1:6">
       <c r="A115">
         <v>42</v>
       </c>
       <c r="B115" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C115" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="F115">
         <v>-1</v>
       </c>
-      <c r="H115">
-        <f t="shared" si="3"/>
-        <v>-41</v>
-      </c>
-    </row>
-    <row r="116" ht="43.7" spans="1:8">
+    </row>
+    <row r="116" ht="43.7" spans="1:6">
       <c r="A116">
         <v>42</v>
       </c>
       <c r="B116" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C116" t="s">
-        <v>19</v>
-      </c>
-      <c r="D116" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="F116">
         <v>1</v>
       </c>
-      <c r="H116">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="117" ht="29.15" spans="1:8">
+    </row>
+    <row r="117" ht="29.15" spans="1:6">
       <c r="A117">
         <v>42</v>
       </c>
       <c r="B117" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C117" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="F117">
         <v>1</v>
       </c>
-      <c r="H117">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="118" ht="29.15" spans="1:8">
+    </row>
+    <row r="118" ht="29.15" spans="1:6">
       <c r="A118">
         <v>43</v>
       </c>
       <c r="B118" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C118" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="F118">
         <v>1</v>
       </c>
-      <c r="H118">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="119" ht="29.15" spans="1:8">
+    </row>
+    <row r="119" ht="29.15" spans="1:6">
       <c r="A119">
         <v>44</v>
       </c>
       <c r="B119" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C119" t="s">
-        <v>75</v>
-      </c>
-      <c r="D119" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E119" s="8" t="s">
-        <v>172</v>
+        <v>64</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="F119">
         <v>1</v>
       </c>
-      <c r="H119">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="120" ht="29.15" spans="1:8">
+    </row>
+    <row r="120" ht="29.15" spans="1:6">
       <c r="A120">
         <v>44</v>
       </c>
       <c r="B120" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C120" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="F120">
         <v>1</v>
       </c>
-      <c r="H120">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="121" ht="29.15" spans="1:8">
+    </row>
+    <row r="121" ht="29.15" spans="1:6">
       <c r="A121">
         <v>45</v>
       </c>
       <c r="B121" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C121" t="s">
-        <v>47</v>
-      </c>
-      <c r="D121" s="6" t="s">
-        <v>48</v>
+        <v>38</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="F121">
         <v>1</v>
       </c>
-      <c r="H121">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="122" ht="43.7" spans="1:8">
+    </row>
+    <row r="122" ht="43.7" spans="1:6">
       <c r="A122">
         <v>45</v>
       </c>
       <c r="B122" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C122" t="s">
-        <v>29</v>
-      </c>
-      <c r="D122" s="6" t="s">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="F122">
         <v>1</v>
       </c>
-      <c r="H122">
-        <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="123" ht="29.15" spans="1:8">
+    </row>
+    <row r="123" ht="29.15" spans="1:6">
       <c r="A123">
         <v>45</v>
       </c>
       <c r="B123" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C123" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="F123">
         <v>1</v>
       </c>
-      <c r="H123">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="124" ht="43.7" spans="1:8">
+    </row>
+    <row r="124" ht="43.7" spans="1:6">
       <c r="A124">
         <v>45</v>
       </c>
       <c r="B124" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C124" t="s">
-        <v>19</v>
-      </c>
-      <c r="D124" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="F124">
         <v>-1</v>
       </c>
-      <c r="H124">
-        <f t="shared" si="3"/>
-        <v>-29</v>
-      </c>
-    </row>
-    <row r="125" ht="29.15" spans="1:8">
+    </row>
+    <row r="125" ht="29.15" spans="1:6">
       <c r="A125">
         <v>46</v>
       </c>
       <c r="B125" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C125" t="s">
-        <v>75</v>
-      </c>
-      <c r="D125" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E125" s="8" t="s">
-        <v>178</v>
+        <v>64</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>156</v>
       </c>
       <c r="F125">
         <v>1</v>
       </c>
-      <c r="H125">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="126" ht="29.15" spans="1:8">
+    </row>
+    <row r="126" ht="29.15" spans="1:6">
       <c r="A126">
         <v>47</v>
       </c>
       <c r="B126" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C126" t="s">
-        <v>75</v>
-      </c>
-      <c r="D126" s="6" t="s">
-        <v>76</v>
+        <v>64</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="F126">
         <v>1</v>
       </c>
-      <c r="G126" t="s">
-        <v>180</v>
-      </c>
-      <c r="H126">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="127" ht="43.7" spans="1:8">
+    </row>
+    <row r="127" ht="43.7" spans="1:6">
       <c r="A127">
         <v>47</v>
       </c>
       <c r="B127" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C127" t="s">
-        <v>19</v>
-      </c>
-      <c r="D127" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="F127">
         <v>1</v>
       </c>
-      <c r="H127">
-        <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="128" ht="29.15" spans="1:8">
+    </row>
+    <row r="128" ht="29.15" spans="1:6">
       <c r="A128">
         <v>47</v>
       </c>
       <c r="B128" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C128" t="s">
-        <v>53</v>
-      </c>
-      <c r="D128" s="6" t="s">
-        <v>54</v>
+        <v>44</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="F128">
         <v>-1</v>
       </c>
-      <c r="H128">
-        <f t="shared" si="3"/>
-        <v>-23</v>
-      </c>
-    </row>
-    <row r="129" ht="29.15" spans="1:8">
+    </row>
+    <row r="129" ht="29.15" spans="1:6">
       <c r="A129">
         <v>48</v>
       </c>
       <c r="B129" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C129" t="s">
-        <v>14</v>
-      </c>
-      <c r="D129" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="F129">
         <v>1</v>
       </c>
-      <c r="G129" t="s">
-        <v>147</v>
-      </c>
-      <c r="H129">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="130" ht="29.15" spans="1:8">
+    </row>
+    <row r="130" ht="29.15" spans="1:6">
       <c r="A130">
         <v>48</v>
       </c>
       <c r="B130" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C130" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="F130">
         <v>1</v>
       </c>
-      <c r="H130">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="131" ht="43.7" spans="1:8">
+    </row>
+    <row r="131" ht="43.7" spans="1:6">
       <c r="A131">
         <v>48</v>
       </c>
       <c r="B131" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C131" t="s">
-        <v>19</v>
-      </c>
-      <c r="D131" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="F131">
         <v>1</v>
       </c>
-      <c r="H131">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="132" ht="29.15" spans="1:8">
+    </row>
+    <row r="132" ht="29.15" spans="1:6">
       <c r="A132">
         <v>48</v>
       </c>
       <c r="B132" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C132" t="s">
-        <v>53</v>
-      </c>
-      <c r="D132" s="6" t="s">
-        <v>54</v>
+        <v>44</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="F132">
         <v>1</v>
       </c>
-      <c r="H132">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="133" ht="29.15" spans="1:8">
+    </row>
+    <row r="133" ht="29.15" spans="1:6">
       <c r="A133">
         <v>50</v>
       </c>
       <c r="B133" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C133" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="F133">
         <v>-1</v>
       </c>
-      <c r="H133">
-        <f t="shared" ref="H133:H140" si="4">F133*IF(LEN(TRIM(E133))=0,0,LEN(TRIM(E133))-LEN(SUBSTITUTE(E133," ",""))+1)</f>
-        <v>-13</v>
-      </c>
-    </row>
-    <row r="134" ht="29.15" spans="1:8">
+    </row>
+    <row r="134" ht="29.15" spans="1:6">
       <c r="A134">
         <v>52</v>
       </c>
       <c r="B134" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C134" t="s">
-        <v>75</v>
-      </c>
-      <c r="D134" s="6" t="s">
-        <v>76</v>
+        <v>64</v>
+      </c>
+      <c r="D134" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="F134">
         <v>1</v>
       </c>
-      <c r="G134" t="s">
-        <v>147</v>
-      </c>
-      <c r="H134">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="135" ht="43.7" spans="1:8">
+    </row>
+    <row r="135" ht="43.7" spans="1:6">
       <c r="A135">
         <v>52</v>
       </c>
       <c r="B135" t="s">
+        <v>6</v>
+      </c>
+      <c r="C135" t="s">
+        <v>7</v>
+      </c>
+      <c r="D135" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C135" t="s">
-        <v>9</v>
-      </c>
-      <c r="D135" s="6" t="s">
-        <v>10</v>
-      </c>
       <c r="E135" s="3" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="F135">
         <v>1</v>
       </c>
-      <c r="H135">
-        <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="136" ht="29.15" spans="1:8">
+    </row>
+    <row r="136" ht="43.7" spans="1:6">
       <c r="A136">
         <v>52</v>
       </c>
       <c r="B136" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C136" t="s">
-        <v>53</v>
-      </c>
-      <c r="D136" s="6" t="s">
-        <v>54</v>
+        <v>44</v>
+      </c>
+      <c r="D136" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="F136">
         <v>1</v>
       </c>
-      <c r="H136">
-        <f t="shared" si="4"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="137" ht="29.15" spans="1:8">
+    </row>
+    <row r="137" ht="29.15" spans="1:6">
       <c r="A137">
         <v>52</v>
       </c>
       <c r="B137" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C137" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="F137">
         <v>1</v>
       </c>
-      <c r="H137">
-        <f t="shared" si="4"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="138" ht="29.15" spans="1:8">
+    </row>
+    <row r="138" ht="29.15" spans="1:6">
       <c r="A138">
         <v>53</v>
       </c>
       <c r="B138" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C138" t="s">
-        <v>75</v>
-      </c>
-      <c r="D138" s="6" t="s">
-        <v>76</v>
+        <v>64</v>
+      </c>
+      <c r="D138" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="F138">
         <v>1</v>
       </c>
-      <c r="G138" t="s">
-        <v>180</v>
-      </c>
-      <c r="H138">
-        <f t="shared" si="4"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="139" ht="29.15" spans="1:8">
+    </row>
+    <row r="139" ht="29.15" spans="1:6">
       <c r="A139">
         <v>53</v>
       </c>
       <c r="B139" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C139" t="s">
-        <v>47</v>
-      </c>
-      <c r="D139" s="6" t="s">
-        <v>48</v>
+        <v>38</v>
+      </c>
+      <c r="D139" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="F139">
         <v>1</v>
       </c>
-      <c r="G139" t="s">
-        <v>194</v>
-      </c>
-      <c r="H139">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="140" ht="43.7" spans="1:8">
+    </row>
+    <row r="140" ht="43.7" spans="1:6">
       <c r="A140">
         <v>53</v>
       </c>
       <c r="B140" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C140" t="s">
-        <v>19</v>
-      </c>
-      <c r="D140" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="F140">
         <v>1</v>
-      </c>
-      <c r="H140">
-        <f t="shared" si="4"/>
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -5616,33 +4682,33 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="B2">
         <f>COUNTIF(reception_raw!A:A,ROW(A2)-1)</f>
@@ -5660,22 +4726,22 @@
         <f>-1*COUNTIFS(reception_raw!A:A,ROW(A2)-1,reception_raw!F:F,-1)</f>
         <v>0</v>
       </c>
-      <c r="F2">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A2)-1,reception_raw!$F:$F,1)</f>
-        <v>29</v>
-      </c>
-      <c r="G2">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A2)-1,reception_raw!$F:$F,-1)</f>
-        <v>0</v>
-      </c>
-      <c r="H2">
+      <c r="F2" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A2)-1,reception_raw!$F:$F,1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G2" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A2)-1,reception_raw!$F:$F,-1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H2" t="e">
         <f t="shared" ref="H2:H54" si="0">F2+G2</f>
-        <v>29</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="B3">
         <f>COUNTIF(reception_raw!A:A,ROW(A3)-1)</f>
@@ -5693,22 +4759,22 @@
         <f>-1*COUNTIFS(reception_raw!A:A,ROW(A3)-1,reception_raw!F:F,-1)</f>
         <v>-2</v>
       </c>
-      <c r="F3">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A3)-1,reception_raw!$F:$F,1)</f>
-        <v>35</v>
-      </c>
-      <c r="G3">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A3)-1,reception_raw!$F:$F,-1)</f>
-        <v>-26</v>
-      </c>
-      <c r="H3">
+      <c r="F3" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A3)-1,reception_raw!$F:$F,1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G3" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A3)-1,reception_raw!$F:$F,-1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H3" t="e">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="B4">
         <f>COUNTIF(reception_raw!A:A,ROW(A4)-1)</f>
@@ -5726,22 +4792,22 @@
         <f>-1*COUNTIFS(reception_raw!A:A,ROW(A4)-1,reception_raw!F:F,-1)</f>
         <v>-2</v>
       </c>
-      <c r="F4">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A4)-1,reception_raw!$F:$F,1)</f>
-        <v>41</v>
-      </c>
-      <c r="G4">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A4)-1,reception_raw!$F:$F,-1)</f>
-        <v>-25</v>
-      </c>
-      <c r="H4">
+      <c r="F4" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A4)-1,reception_raw!$F:$F,1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G4" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A4)-1,reception_raw!$F:$F,-1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H4" t="e">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="B5">
         <f>COUNTIF(reception_raw!A:A,ROW(A5)-1)</f>
@@ -5759,22 +4825,22 @@
         <f>-1*COUNTIFS(reception_raw!A:A,ROW(A5)-1,reception_raw!F:F,-1)</f>
         <v>-2</v>
       </c>
-      <c r="F5">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A5)-1,reception_raw!$F:$F,1)</f>
-        <v>29</v>
-      </c>
-      <c r="G5">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A5)-1,reception_raw!$F:$F,-1)</f>
-        <v>-26</v>
-      </c>
-      <c r="H5">
+      <c r="F5" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A5)-1,reception_raw!$F:$F,1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G5" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A5)-1,reception_raw!$F:$F,-1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H5" t="e">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="B6">
         <f>COUNTIF(reception_raw!A:A,ROW(A6)-1)</f>
@@ -5792,22 +4858,22 @@
         <f>-1*COUNTIFS(reception_raw!A:A,ROW(A6)-1,reception_raw!F:F,-1)</f>
         <v>0</v>
       </c>
-      <c r="F6">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A6)-1,reception_raw!$F:$F,1)</f>
-        <v>60</v>
-      </c>
-      <c r="G6">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A6)-1,reception_raw!$F:$F,-1)</f>
-        <v>0</v>
-      </c>
-      <c r="H6">
+      <c r="F6" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A6)-1,reception_raw!$F:$F,1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G6" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A6)-1,reception_raw!$F:$F,-1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H6" t="e">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="B7">
         <f>COUNTIF(reception_raw!A:A,ROW(A7)-1)</f>
@@ -5825,22 +4891,22 @@
         <f>-1*COUNTIFS(reception_raw!A:A,ROW(A7)-1,reception_raw!F:F,-1)</f>
         <v>-2</v>
       </c>
-      <c r="F7">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A7)-1,reception_raw!$F:$F,1)</f>
-        <v>43</v>
-      </c>
-      <c r="G7">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A7)-1,reception_raw!$F:$F,-1)</f>
-        <v>-59</v>
-      </c>
-      <c r="H7">
+      <c r="F7" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A7)-1,reception_raw!$F:$F,1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G7" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A7)-1,reception_raw!$F:$F,-1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H7" t="e">
         <f t="shared" si="0"/>
-        <v>-16</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="B8">
         <f>COUNTIF(reception_raw!A:A,ROW(A8)-1)</f>
@@ -5858,22 +4924,22 @@
         <f>-1*COUNTIFS(reception_raw!A:A,ROW(A8)-1,reception_raw!F:F,-1)</f>
         <v>-1</v>
       </c>
-      <c r="F8">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A8)-1,reception_raw!$F:$F,1)</f>
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A8)-1,reception_raw!$F:$F,-1)</f>
-        <v>-6</v>
-      </c>
-      <c r="H8">
+      <c r="F8" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A8)-1,reception_raw!$F:$F,1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G8" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A8)-1,reception_raw!$F:$F,-1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H8" t="e">
         <f t="shared" si="0"/>
-        <v>-6</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="B9">
         <f>COUNTIF(reception_raw!A:A,ROW(A9)-1)</f>
@@ -5891,22 +4957,22 @@
         <f>-1*COUNTIFS(reception_raw!A:A,ROW(A9)-1,reception_raw!F:F,-1)</f>
         <v>0</v>
       </c>
-      <c r="F9">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A9)-1,reception_raw!$F:$F,1)</f>
-        <v>60</v>
-      </c>
-      <c r="G9">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A9)-1,reception_raw!$F:$F,-1)</f>
-        <v>0</v>
-      </c>
-      <c r="H9">
+      <c r="F9" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A9)-1,reception_raw!$F:$F,1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G9" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A9)-1,reception_raw!$F:$F,-1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H9" t="e">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="B10">
         <f>COUNTIF(reception_raw!A:A,ROW(A10)-1)</f>
@@ -5924,22 +4990,22 @@
         <f>-1*COUNTIFS(reception_raw!A:A,ROW(A10)-1,reception_raw!F:F,-1)</f>
         <v>0</v>
       </c>
-      <c r="F10">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A10)-1,reception_raw!$F:$F,1)</f>
-        <v>14</v>
-      </c>
-      <c r="G10">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A10)-1,reception_raw!$F:$F,-1)</f>
-        <v>0</v>
-      </c>
-      <c r="H10">
+      <c r="F10" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A10)-1,reception_raw!$F:$F,1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G10" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A10)-1,reception_raw!$F:$F,-1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H10" t="e">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="B11">
         <f>COUNTIF(reception_raw!A:A,ROW(A11)-1)</f>
@@ -5957,22 +5023,22 @@
         <f>-1*COUNTIFS(reception_raw!A:A,ROW(A11)-1,reception_raw!F:F,-1)</f>
         <v>0</v>
       </c>
-      <c r="F11">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A11)-1,reception_raw!$F:$F,1)</f>
-        <v>45</v>
-      </c>
-      <c r="G11">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A11)-1,reception_raw!$F:$F,-1)</f>
-        <v>0</v>
-      </c>
-      <c r="H11">
+      <c r="F11" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A11)-1,reception_raw!$F:$F,1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G11" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A11)-1,reception_raw!$F:$F,-1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H11" t="e">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="B12">
         <f>COUNTIF(reception_raw!A:A,ROW(A12)-1)</f>
@@ -5990,22 +5056,22 @@
         <f>-1*COUNTIFS(reception_raw!A:A,ROW(A12)-1,reception_raw!F:F,-1)</f>
         <v>-1</v>
       </c>
-      <c r="F12">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A12)-1,reception_raw!$F:$F,1)</f>
-        <v>45</v>
-      </c>
-      <c r="G12">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A12)-1,reception_raw!$F:$F,-1)</f>
-        <v>-20</v>
-      </c>
-      <c r="H12">
+      <c r="F12" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A12)-1,reception_raw!$F:$F,1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G12" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A12)-1,reception_raw!$F:$F,-1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H12" t="e">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="B13">
         <f>COUNTIF(reception_raw!A:A,ROW(A13)-1)</f>
@@ -6023,22 +5089,22 @@
         <f>-1*COUNTIFS(reception_raw!A:A,ROW(A13)-1,reception_raw!F:F,-1)</f>
         <v>0</v>
       </c>
-      <c r="F13">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A13)-1,reception_raw!$F:$F,1)</f>
-        <v>33</v>
-      </c>
-      <c r="G13">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A13)-1,reception_raw!$F:$F,-1)</f>
-        <v>0</v>
-      </c>
-      <c r="H13">
+      <c r="F13" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A13)-1,reception_raw!$F:$F,1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G13" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A13)-1,reception_raw!$F:$F,-1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H13" t="e">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="B14">
         <f>COUNTIF(reception_raw!A:A,ROW(A14)-1)</f>
@@ -6056,22 +5122,22 @@
         <f>-1*COUNTIFS(reception_raw!A:A,ROW(A14)-1,reception_raw!F:F,-1)</f>
         <v>0</v>
       </c>
-      <c r="F14">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A14)-1,reception_raw!$F:$F,1)</f>
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A14)-1,reception_raw!$F:$F,-1)</f>
-        <v>0</v>
-      </c>
-      <c r="H14">
+      <c r="F14" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A14)-1,reception_raw!$F:$F,1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G14" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A14)-1,reception_raw!$F:$F,-1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H14" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="B15">
         <f>COUNTIF(reception_raw!A:A,ROW(A15)-1)</f>
@@ -6089,22 +5155,22 @@
         <f>-1*COUNTIFS(reception_raw!A:A,ROW(A15)-1,reception_raw!F:F,-1)</f>
         <v>0</v>
       </c>
-      <c r="F15">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A15)-1,reception_raw!$F:$F,1)</f>
-        <v>36</v>
-      </c>
-      <c r="G15">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A15)-1,reception_raw!$F:$F,-1)</f>
-        <v>0</v>
-      </c>
-      <c r="H15">
+      <c r="F15" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A15)-1,reception_raw!$F:$F,1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G15" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A15)-1,reception_raw!$F:$F,-1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H15" t="e">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="B16">
         <f>COUNTIF(reception_raw!A:A,ROW(A16)-1)</f>
@@ -6122,22 +5188,22 @@
         <f>-1*COUNTIFS(reception_raw!A:A,ROW(A16)-1,reception_raw!F:F,-1)</f>
         <v>0</v>
       </c>
-      <c r="F16">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A16)-1,reception_raw!$F:$F,1)</f>
-        <v>38</v>
-      </c>
-      <c r="G16">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A16)-1,reception_raw!$F:$F,-1)</f>
-        <v>0</v>
-      </c>
-      <c r="H16">
+      <c r="F16" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A16)-1,reception_raw!$F:$F,1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G16" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A16)-1,reception_raw!$F:$F,-1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H16" t="e">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="B17">
         <f>COUNTIF(reception_raw!A:A,ROW(A17)-1)</f>
@@ -6155,22 +5221,22 @@
         <f>-1*COUNTIFS(reception_raw!A:A,ROW(A17)-1,reception_raw!F:F,-1)</f>
         <v>0</v>
       </c>
-      <c r="F17">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A17)-1,reception_raw!$F:$F,1)</f>
-        <v>41</v>
-      </c>
-      <c r="G17">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A17)-1,reception_raw!$F:$F,-1)</f>
-        <v>0</v>
-      </c>
-      <c r="H17">
+      <c r="F17" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A17)-1,reception_raw!$F:$F,1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G17" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A17)-1,reception_raw!$F:$F,-1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H17" t="e">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="B18">
         <f>COUNTIF(reception_raw!A:A,ROW(A18)-1)</f>
@@ -6188,22 +5254,22 @@
         <f>-1*COUNTIFS(reception_raw!A:A,ROW(A18)-1,reception_raw!F:F,-1)</f>
         <v>0</v>
       </c>
-      <c r="F18">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A18)-1,reception_raw!$F:$F,1)</f>
-        <v>30</v>
-      </c>
-      <c r="G18">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A18)-1,reception_raw!$F:$F,-1)</f>
-        <v>0</v>
-      </c>
-      <c r="H18">
+      <c r="F18" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A18)-1,reception_raw!$F:$F,1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G18" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A18)-1,reception_raw!$F:$F,-1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H18" t="e">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="B19">
         <f>COUNTIF(reception_raw!A:A,ROW(A19)-1)</f>
@@ -6221,22 +5287,22 @@
         <f>-1*COUNTIFS(reception_raw!A:A,ROW(A19)-1,reception_raw!F:F,-1)</f>
         <v>-2</v>
       </c>
-      <c r="F19">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A19)-1,reception_raw!$F:$F,1)</f>
-        <v>83</v>
-      </c>
-      <c r="G19">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A19)-1,reception_raw!$F:$F,-1)</f>
-        <v>-22</v>
-      </c>
-      <c r="H19">
+      <c r="F19" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A19)-1,reception_raw!$F:$F,1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G19" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A19)-1,reception_raw!$F:$F,-1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H19" t="e">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="B20">
         <f>COUNTIF(reception_raw!A:A,ROW(A20)-1)</f>
@@ -6254,22 +5320,22 @@
         <f>-1*COUNTIFS(reception_raw!A:A,ROW(A20)-1,reception_raw!F:F,-1)</f>
         <v>0</v>
       </c>
-      <c r="F20">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A20)-1,reception_raw!$F:$F,1)</f>
-        <v>28</v>
-      </c>
-      <c r="G20">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A20)-1,reception_raw!$F:$F,-1)</f>
-        <v>0</v>
-      </c>
-      <c r="H20">
+      <c r="F20" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A20)-1,reception_raw!$F:$F,1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G20" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A20)-1,reception_raw!$F:$F,-1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H20" t="e">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="B21">
         <f>COUNTIF(reception_raw!A:A,ROW(A21)-1)</f>
@@ -6287,22 +5353,22 @@
         <f>-1*COUNTIFS(reception_raw!A:A,ROW(A21)-1,reception_raw!F:F,-1)</f>
         <v>-2</v>
       </c>
-      <c r="F21">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A21)-1,reception_raw!$F:$F,1)</f>
-        <v>11</v>
-      </c>
-      <c r="G21">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A21)-1,reception_raw!$F:$F,-1)</f>
-        <v>-42</v>
-      </c>
-      <c r="H21">
+      <c r="F21" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A21)-1,reception_raw!$F:$F,1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G21" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A21)-1,reception_raw!$F:$F,-1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H21" t="e">
         <f t="shared" si="0"/>
-        <v>-31</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="B22">
         <f>COUNTIF(reception_raw!A:A,ROW(A22)-1)</f>
@@ -6320,22 +5386,22 @@
         <f>-1*COUNTIFS(reception_raw!A:A,ROW(A22)-1,reception_raw!F:F,-1)</f>
         <v>-2</v>
       </c>
-      <c r="F22">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A22)-1,reception_raw!$F:$F,1)</f>
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A22)-1,reception_raw!$F:$F,-1)</f>
-        <v>-43</v>
-      </c>
-      <c r="H22">
+      <c r="F22" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A22)-1,reception_raw!$F:$F,1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G22" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A22)-1,reception_raw!$F:$F,-1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H22" t="e">
         <f t="shared" si="0"/>
-        <v>-43</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="B23">
         <f>COUNTIF(reception_raw!A:A,ROW(A23)-1)</f>
@@ -6353,22 +5419,22 @@
         <f>-1*COUNTIFS(reception_raw!A:A,ROW(A23)-1,reception_raw!F:F,-1)</f>
         <v>0</v>
       </c>
-      <c r="F23">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A23)-1,reception_raw!$F:$F,1)</f>
-        <v>43</v>
-      </c>
-      <c r="G23">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A23)-1,reception_raw!$F:$F,-1)</f>
-        <v>0</v>
-      </c>
-      <c r="H23">
+      <c r="F23" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A23)-1,reception_raw!$F:$F,1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G23" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A23)-1,reception_raw!$F:$F,-1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H23" t="e">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="B24">
         <f>COUNTIF(reception_raw!A:A,ROW(A24)-1)</f>
@@ -6386,22 +5452,22 @@
         <f>-1*COUNTIFS(reception_raw!A:A,ROW(A24)-1,reception_raw!F:F,-1)</f>
         <v>-1</v>
       </c>
-      <c r="F24">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A24)-1,reception_raw!$F:$F,1)</f>
-        <v>21</v>
-      </c>
-      <c r="G24">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A24)-1,reception_raw!$F:$F,-1)</f>
-        <v>-20</v>
-      </c>
-      <c r="H24">
+      <c r="F24" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A24)-1,reception_raw!$F:$F,1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G24" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A24)-1,reception_raw!$F:$F,-1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H24" t="e">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="B25">
         <f>COUNTIF(reception_raw!A:A,ROW(A25)-1)</f>
@@ -6419,22 +5485,22 @@
         <f>-1*COUNTIFS(reception_raw!A:A,ROW(A25)-1,reception_raw!F:F,-1)</f>
         <v>0</v>
       </c>
-      <c r="F25">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A25)-1,reception_raw!$F:$F,1)</f>
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A25)-1,reception_raw!$F:$F,-1)</f>
-        <v>0</v>
-      </c>
-      <c r="H25">
+      <c r="F25" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A25)-1,reception_raw!$F:$F,1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G25" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A25)-1,reception_raw!$F:$F,-1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H25" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="B26">
         <f>COUNTIF(reception_raw!A:A,ROW(A26)-1)</f>
@@ -6452,22 +5518,22 @@
         <f>-1*COUNTIFS(reception_raw!A:A,ROW(A26)-1,reception_raw!F:F,-1)</f>
         <v>-1</v>
       </c>
-      <c r="F26">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A26)-1,reception_raw!$F:$F,1)</f>
-        <v>41</v>
-      </c>
-      <c r="G26">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A26)-1,reception_raw!$F:$F,-1)</f>
-        <v>-22</v>
-      </c>
-      <c r="H26">
+      <c r="F26" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A26)-1,reception_raw!$F:$F,1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G26" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A26)-1,reception_raw!$F:$F,-1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H26" t="e">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="B27">
         <f>COUNTIF(reception_raw!A:A,ROW(A27)-1)</f>
@@ -6485,22 +5551,22 @@
         <f>-1*COUNTIFS(reception_raw!A:A,ROW(A27)-1,reception_raw!F:F,-1)</f>
         <v>-1</v>
       </c>
-      <c r="F27">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A27)-1,reception_raw!$F:$F,1)</f>
-        <v>79</v>
-      </c>
-      <c r="G27">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A27)-1,reception_raw!$F:$F,-1)</f>
-        <v>-24</v>
-      </c>
-      <c r="H27">
+      <c r="F27" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A27)-1,reception_raw!$F:$F,1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G27" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A27)-1,reception_raw!$F:$F,-1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H27" t="e">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="B28">
         <f>COUNTIF(reception_raw!A:A,ROW(A28)-1)</f>
@@ -6518,22 +5584,22 @@
         <f>-1*COUNTIFS(reception_raw!A:A,ROW(A28)-1,reception_raw!F:F,-1)</f>
         <v>-1</v>
       </c>
-      <c r="F28">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A28)-1,reception_raw!$F:$F,1)</f>
-        <v>41</v>
-      </c>
-      <c r="G28">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A28)-1,reception_raw!$F:$F,-1)</f>
-        <v>-24</v>
-      </c>
-      <c r="H28">
+      <c r="F28" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A28)-1,reception_raw!$F:$F,1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G28" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A28)-1,reception_raw!$F:$F,-1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H28" t="e">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="B29">
         <f>COUNTIF(reception_raw!A:A,ROW(A29)-1)</f>
@@ -6551,22 +5617,22 @@
         <f>-1*COUNTIFS(reception_raw!A:A,ROW(A29)-1,reception_raw!F:F,-1)</f>
         <v>0</v>
       </c>
-      <c r="F29">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A29)-1,reception_raw!$F:$F,1)</f>
-        <v>21</v>
-      </c>
-      <c r="G29">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A29)-1,reception_raw!$F:$F,-1)</f>
-        <v>0</v>
-      </c>
-      <c r="H29">
+      <c r="F29" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A29)-1,reception_raw!$F:$F,1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G29" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A29)-1,reception_raw!$F:$F,-1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H29" t="e">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="B30">
         <f>COUNTIF(reception_raw!A:A,ROW(A30)-1)</f>
@@ -6584,22 +5650,22 @@
         <f>-1*COUNTIFS(reception_raw!A:A,ROW(A30)-1,reception_raw!F:F,-1)</f>
         <v>0</v>
       </c>
-      <c r="F30">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A30)-1,reception_raw!$F:$F,1)</f>
-        <v>10</v>
-      </c>
-      <c r="G30">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A30)-1,reception_raw!$F:$F,-1)</f>
-        <v>0</v>
-      </c>
-      <c r="H30">
+      <c r="F30" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A30)-1,reception_raw!$F:$F,1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G30" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A30)-1,reception_raw!$F:$F,-1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H30" t="e">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="B31">
         <f>COUNTIF(reception_raw!A:A,ROW(A31)-1)</f>
@@ -6617,22 +5683,22 @@
         <f>-1*COUNTIFS(reception_raw!A:A,ROW(A31)-1,reception_raw!F:F,-1)</f>
         <v>0</v>
       </c>
-      <c r="F31">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A31)-1,reception_raw!$F:$F,1)</f>
-        <v>55</v>
-      </c>
-      <c r="G31">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A31)-1,reception_raw!$F:$F,-1)</f>
-        <v>0</v>
-      </c>
-      <c r="H31">
+      <c r="F31" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A31)-1,reception_raw!$F:$F,1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G31" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A31)-1,reception_raw!$F:$F,-1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H31" t="e">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="B32">
         <f>COUNTIF(reception_raw!A:A,ROW(A32)-1)</f>
@@ -6650,22 +5716,22 @@
         <f>-1*COUNTIFS(reception_raw!A:A,ROW(A32)-1,reception_raw!F:F,-1)</f>
         <v>0</v>
       </c>
-      <c r="F32">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A32)-1,reception_raw!$F:$F,1)</f>
-        <v>17</v>
-      </c>
-      <c r="G32">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A32)-1,reception_raw!$F:$F,-1)</f>
-        <v>0</v>
-      </c>
-      <c r="H32">
+      <c r="F32" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A32)-1,reception_raw!$F:$F,1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G32" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A32)-1,reception_raw!$F:$F,-1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H32" t="e">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="B33">
         <f>COUNTIF(reception_raw!A:A,ROW(A33)-1)</f>
@@ -6683,22 +5749,22 @@
         <f>-1*COUNTIFS(reception_raw!A:A,ROW(A33)-1,reception_raw!F:F,-1)</f>
         <v>0</v>
       </c>
-      <c r="F33">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A33)-1,reception_raw!$F:$F,1)</f>
-        <v>24</v>
-      </c>
-      <c r="G33">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A33)-1,reception_raw!$F:$F,-1)</f>
-        <v>0</v>
-      </c>
-      <c r="H33">
+      <c r="F33" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A33)-1,reception_raw!$F:$F,1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G33" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A33)-1,reception_raw!$F:$F,-1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H33" t="e">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="B34">
         <f>COUNTIF(reception_raw!A:A,ROW(A34)-1)</f>
@@ -6716,22 +5782,22 @@
         <f>-1*COUNTIFS(reception_raw!A:A,ROW(A34)-1,reception_raw!F:F,-1)</f>
         <v>0</v>
       </c>
-      <c r="F34">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A34)-1,reception_raw!$F:$F,1)</f>
-        <v>48</v>
-      </c>
-      <c r="G34">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A34)-1,reception_raw!$F:$F,-1)</f>
-        <v>0</v>
-      </c>
-      <c r="H34">
+      <c r="F34" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A34)-1,reception_raw!$F:$F,1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G34" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A34)-1,reception_raw!$F:$F,-1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H34" t="e">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="B35">
         <f>COUNTIF(reception_raw!A:A,ROW(A35)-1)</f>
@@ -6749,22 +5815,22 @@
         <f>-1*COUNTIFS(reception_raw!A:A,ROW(A35)-1,reception_raw!F:F,-1)</f>
         <v>0</v>
       </c>
-      <c r="F35">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A35)-1,reception_raw!$F:$F,1)</f>
-        <v>20</v>
-      </c>
-      <c r="G35">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A35)-1,reception_raw!$F:$F,-1)</f>
-        <v>0</v>
-      </c>
-      <c r="H35">
+      <c r="F35" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A35)-1,reception_raw!$F:$F,1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G35" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A35)-1,reception_raw!$F:$F,-1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H35" t="e">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="B36">
         <f>COUNTIF(reception_raw!A:A,ROW(A36)-1)</f>
@@ -6782,22 +5848,22 @@
         <f>-1*COUNTIFS(reception_raw!A:A,ROW(A36)-1,reception_raw!F:F,-1)</f>
         <v>0</v>
       </c>
-      <c r="F36">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A36)-1,reception_raw!$F:$F,1)</f>
-        <v>130</v>
-      </c>
-      <c r="G36">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A36)-1,reception_raw!$F:$F,-1)</f>
-        <v>0</v>
-      </c>
-      <c r="H36">
+      <c r="F36" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A36)-1,reception_raw!$F:$F,1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G36" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A36)-1,reception_raw!$F:$F,-1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H36" t="e">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="B37">
         <f>COUNTIF(reception_raw!A:A,ROW(A37)-1)</f>
@@ -6815,22 +5881,22 @@
         <f>-1*COUNTIFS(reception_raw!A:A,ROW(A37)-1,reception_raw!F:F,-1)</f>
         <v>-1</v>
       </c>
-      <c r="F37">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A37)-1,reception_raw!$F:$F,1)</f>
-        <v>311</v>
-      </c>
-      <c r="G37">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A37)-1,reception_raw!$F:$F,-1)</f>
-        <v>-22</v>
-      </c>
-      <c r="H37">
+      <c r="F37" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A37)-1,reception_raw!$F:$F,1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G37" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A37)-1,reception_raw!$F:$F,-1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H37" t="e">
         <f t="shared" si="0"/>
-        <v>289</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="B38">
         <f>COUNTIF(reception_raw!A:A,ROW(A38)-1)</f>
@@ -6848,22 +5914,22 @@
         <f>-1*COUNTIFS(reception_raw!A:A,ROW(A38)-1,reception_raw!F:F,-1)</f>
         <v>0</v>
       </c>
-      <c r="F38">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A38)-1,reception_raw!$F:$F,1)</f>
-        <v>22</v>
-      </c>
-      <c r="G38">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A38)-1,reception_raw!$F:$F,-1)</f>
-        <v>0</v>
-      </c>
-      <c r="H38">
+      <c r="F38" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A38)-1,reception_raw!$F:$F,1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G38" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A38)-1,reception_raw!$F:$F,-1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H38" t="e">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="B39">
         <f>COUNTIF(reception_raw!A:A,ROW(A39)-1)</f>
@@ -6881,22 +5947,22 @@
         <f>-1*COUNTIFS(reception_raw!A:A,ROW(A39)-1,reception_raw!F:F,-1)</f>
         <v>0</v>
       </c>
-      <c r="F39">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A39)-1,reception_raw!$F:$F,1)</f>
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A39)-1,reception_raw!$F:$F,-1)</f>
-        <v>0</v>
-      </c>
-      <c r="H39">
+      <c r="F39" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A39)-1,reception_raw!$F:$F,1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G39" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A39)-1,reception_raw!$F:$F,-1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H39" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="B40">
         <f>COUNTIF(reception_raw!A:A,ROW(A40)-1)</f>
@@ -6914,22 +5980,22 @@
         <f>-1*COUNTIFS(reception_raw!A:A,ROW(A40)-1,reception_raw!F:F,-1)</f>
         <v>0</v>
       </c>
-      <c r="F40">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A40)-1,reception_raw!$F:$F,1)</f>
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A40)-1,reception_raw!$F:$F,-1)</f>
-        <v>0</v>
-      </c>
-      <c r="H40">
+      <c r="F40" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A40)-1,reception_raw!$F:$F,1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G40" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A40)-1,reception_raw!$F:$F,-1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H40" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="B41">
         <f>COUNTIF(reception_raw!A:A,ROW(A41)-1)</f>
@@ -6947,22 +6013,22 @@
         <f>-1*COUNTIFS(reception_raw!A:A,ROW(A41)-1,reception_raw!F:F,-1)</f>
         <v>0</v>
       </c>
-      <c r="F41">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A41)-1,reception_raw!$F:$F,1)</f>
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A41)-1,reception_raw!$F:$F,-1)</f>
-        <v>0</v>
-      </c>
-      <c r="H41">
+      <c r="F41" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A41)-1,reception_raw!$F:$F,1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G41" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A41)-1,reception_raw!$F:$F,-1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H41" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="B42">
         <f>COUNTIF(reception_raw!A:A,ROW(A42)-1)</f>
@@ -6980,22 +6046,22 @@
         <f>-1*COUNTIFS(reception_raw!A:A,ROW(A42)-1,reception_raw!F:F,-1)</f>
         <v>0</v>
       </c>
-      <c r="F42">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A42)-1,reception_raw!$F:$F,1)</f>
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A42)-1,reception_raw!$F:$F,-1)</f>
-        <v>0</v>
-      </c>
-      <c r="H42">
+      <c r="F42" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A42)-1,reception_raw!$F:$F,1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G42" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A42)-1,reception_raw!$F:$F,-1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H42" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="B43">
         <f>COUNTIF(reception_raw!A:A,ROW(A43)-1)</f>
@@ -7003,32 +6069,32 @@
       </c>
       <c r="C43">
         <f>SUMIF(reception_raw!A:A,ROW(A43)-1,reception_raw!F:F)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D43">
         <f>COUNTIFS(reception_raw!A:A,ROW(A43)-1,reception_raw!F:F,1)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E43">
         <f>-1*COUNTIFS(reception_raw!A:A,ROW(A43)-1,reception_raw!F:F,-1)</f>
-        <v>-1</v>
-      </c>
-      <c r="F43">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A43)-1,reception_raw!$F:$F,1)</f>
-        <v>56</v>
-      </c>
-      <c r="G43">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A43)-1,reception_raw!$F:$F,-1)</f>
-        <v>-41</v>
-      </c>
-      <c r="H43">
+        <v>-2</v>
+      </c>
+      <c r="F43" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A43)-1,reception_raw!$F:$F,1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G43" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A43)-1,reception_raw!$F:$F,-1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H43" t="e">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="B44">
         <f>COUNTIF(reception_raw!A:A,ROW(A44)-1)</f>
@@ -7046,22 +6112,22 @@
         <f>-1*COUNTIFS(reception_raw!A:A,ROW(A44)-1,reception_raw!F:F,-1)</f>
         <v>0</v>
       </c>
-      <c r="F44">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A44)-1,reception_raw!$F:$F,1)</f>
-        <v>8</v>
-      </c>
-      <c r="G44">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A44)-1,reception_raw!$F:$F,-1)</f>
-        <v>0</v>
-      </c>
-      <c r="H44">
+      <c r="F44" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A44)-1,reception_raw!$F:$F,1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G44" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A44)-1,reception_raw!$F:$F,-1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H44" t="e">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="B45">
         <f>COUNTIF(reception_raw!A:A,ROW(A45)-1)</f>
@@ -7079,22 +6145,22 @@
         <f>-1*COUNTIFS(reception_raw!A:A,ROW(A45)-1,reception_raw!F:F,-1)</f>
         <v>0</v>
       </c>
-      <c r="F45">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A45)-1,reception_raw!$F:$F,1)</f>
-        <v>25</v>
-      </c>
-      <c r="G45">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A45)-1,reception_raw!$F:$F,-1)</f>
-        <v>0</v>
-      </c>
-      <c r="H45">
+      <c r="F45" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A45)-1,reception_raw!$F:$F,1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G45" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A45)-1,reception_raw!$F:$F,-1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H45" t="e">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="B46">
         <f>COUNTIF(reception_raw!A:A,ROW(A46)-1)</f>
@@ -7112,22 +6178,22 @@
         <f>-1*COUNTIFS(reception_raw!A:A,ROW(A46)-1,reception_raw!F:F,-1)</f>
         <v>-1</v>
       </c>
-      <c r="F46">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A46)-1,reception_raw!$F:$F,1)</f>
-        <v>48</v>
-      </c>
-      <c r="G46">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A46)-1,reception_raw!$F:$F,-1)</f>
-        <v>-29</v>
-      </c>
-      <c r="H46">
+      <c r="F46" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A46)-1,reception_raw!$F:$F,1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G46" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A46)-1,reception_raw!$F:$F,-1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H46" t="e">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="B47">
         <f>COUNTIF(reception_raw!A:A,ROW(A47)-1)</f>
@@ -7145,22 +6211,22 @@
         <f>-1*COUNTIFS(reception_raw!A:A,ROW(A47)-1,reception_raw!F:F,-1)</f>
         <v>0</v>
       </c>
-      <c r="F47">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A47)-1,reception_raw!$F:$F,1)</f>
-        <v>16</v>
-      </c>
-      <c r="G47">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A47)-1,reception_raw!$F:$F,-1)</f>
-        <v>0</v>
-      </c>
-      <c r="H47">
+      <c r="F47" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A47)-1,reception_raw!$F:$F,1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G47" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A47)-1,reception_raw!$F:$F,-1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H47" t="e">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="B48">
         <f>COUNTIF(reception_raw!A:A,ROW(A48)-1)</f>
@@ -7178,22 +6244,22 @@
         <f>-1*COUNTIFS(reception_raw!A:A,ROW(A48)-1,reception_raw!F:F,-1)</f>
         <v>-1</v>
       </c>
-      <c r="F48">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A48)-1,reception_raw!$F:$F,1)</f>
-        <v>39</v>
-      </c>
-      <c r="G48">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A48)-1,reception_raw!$F:$F,-1)</f>
-        <v>-23</v>
-      </c>
-      <c r="H48">
+      <c r="F48" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A48)-1,reception_raw!$F:$F,1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G48" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A48)-1,reception_raw!$F:$F,-1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H48" t="e">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="B49">
         <f>COUNTIF(reception_raw!A:A,ROW(A49)-1)</f>
@@ -7211,22 +6277,22 @@
         <f>-1*COUNTIFS(reception_raw!A:A,ROW(A49)-1,reception_raw!F:F,-1)</f>
         <v>0</v>
       </c>
-      <c r="F49">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A49)-1,reception_raw!$F:$F,1)</f>
-        <v>72</v>
-      </c>
-      <c r="G49">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A49)-1,reception_raw!$F:$F,-1)</f>
-        <v>0</v>
-      </c>
-      <c r="H49">
+      <c r="F49" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A49)-1,reception_raw!$F:$F,1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G49" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A49)-1,reception_raw!$F:$F,-1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H49" t="e">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="B50">
         <f>COUNTIF(reception_raw!A:A,ROW(A50)-1)</f>
@@ -7244,22 +6310,22 @@
         <f>-1*COUNTIFS(reception_raw!A:A,ROW(A50)-1,reception_raw!F:F,-1)</f>
         <v>0</v>
       </c>
-      <c r="F50">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A50)-1,reception_raw!$F:$F,1)</f>
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A50)-1,reception_raw!$F:$F,-1)</f>
-        <v>0</v>
-      </c>
-      <c r="H50">
+      <c r="F50" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A50)-1,reception_raw!$F:$F,1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G50" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A50)-1,reception_raw!$F:$F,-1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H50" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="B51">
         <f>COUNTIF(reception_raw!A:A,ROW(A51)-1)</f>
@@ -7277,22 +6343,22 @@
         <f>-1*COUNTIFS(reception_raw!A:A,ROW(A51)-1,reception_raw!F:F,-1)</f>
         <v>-1</v>
       </c>
-      <c r="F51">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A51)-1,reception_raw!$F:$F,1)</f>
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A51)-1,reception_raw!$F:$F,-1)</f>
-        <v>-13</v>
-      </c>
-      <c r="H51">
+      <c r="F51" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A51)-1,reception_raw!$F:$F,1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G51" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A51)-1,reception_raw!$F:$F,-1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H51" t="e">
         <f t="shared" si="0"/>
-        <v>-13</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="B52">
         <f>COUNTIF(reception_raw!A:A,ROW(A52)-1)</f>
@@ -7310,22 +6376,22 @@
         <f>-1*COUNTIFS(reception_raw!A:A,ROW(A52)-1,reception_raw!F:F,-1)</f>
         <v>0</v>
       </c>
-      <c r="F52">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A52)-1,reception_raw!$F:$F,1)</f>
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A52)-1,reception_raw!$F:$F,-1)</f>
-        <v>0</v>
-      </c>
-      <c r="H52">
+      <c r="F52" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A52)-1,reception_raw!$F:$F,1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G52" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A52)-1,reception_raw!$F:$F,-1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H52" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="B53">
         <f>COUNTIF(reception_raw!A:A,ROW(A53)-1)</f>
@@ -7343,22 +6409,22 @@
         <f>-1*COUNTIFS(reception_raw!A:A,ROW(A53)-1,reception_raw!F:F,-1)</f>
         <v>0</v>
       </c>
-      <c r="F53">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A53)-1,reception_raw!$F:$F,1)</f>
-        <v>79</v>
-      </c>
-      <c r="G53">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A53)-1,reception_raw!$F:$F,-1)</f>
-        <v>0</v>
-      </c>
-      <c r="H53">
+      <c r="F53" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A53)-1,reception_raw!$F:$F,1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G53" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A53)-1,reception_raw!$F:$F,-1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H53" t="e">
         <f t="shared" si="0"/>
-        <v>79</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="B54">
         <f>COUNTIF(reception_raw!A:A,ROW(A54)-1)</f>
@@ -7376,17 +6442,17 @@
         <f>-1*COUNTIFS(reception_raw!A:A,ROW(A54)-1,reception_raw!F:F,-1)</f>
         <v>0</v>
       </c>
-      <c r="F54">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A54)-1,reception_raw!$F:$F,1)</f>
-        <v>56</v>
-      </c>
-      <c r="G54">
-        <f>SUMIFS(reception_raw!$H:$H,reception_raw!$A:$A,ROW($A54)-1,reception_raw!$F:$F,-1)</f>
-        <v>0</v>
-      </c>
-      <c r="H54">
+      <c r="F54" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A54)-1,reception_raw!$F:$F,1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G54" t="e">
+        <f>SUMIFS(reception_raw!#REF!,reception_raw!$A:$A,ROW($A54)-1,reception_raw!$F:$F,-1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H54" t="e">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
@@ -7441,426 +6507,426 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
